--- a/Project-QAMars/Project Mars-User Story-1.xlsx
+++ b/Project-QAMars/Project Mars-User Story-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ammus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36984F21-03FF-45AF-9C38-7BE76FA4F116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB61603-8FAD-435D-B2C8-31030ED03D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{0D2B5DAA-F4CA-4B43-9F67-0BFE73EB32A2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="296">
   <si>
     <r>
       <t xml:space="preserve">2. As an existing user trying to login with valid credentials </t>
@@ -2208,13 +2208,16 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2280,6 +2283,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="32">
     <fill>
@@ -2321,12 +2332,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2465,6 +2470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2630,7 +2641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2700,6 +2711,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2709,302 +2771,272 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3337,25 +3369,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3440,24 +3472,24 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
     </row>
     <row r="19" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
@@ -3471,26 +3503,26 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="28" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="39" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -3498,87 +3530,87 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="45"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
-      <c r="B33" s="115"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="5" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="42" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -3586,94 +3618,94 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="35" t="s">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="16" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="15" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="43"/>
       <c r="C44" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="36"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="44" t="s">
         <v>65</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3681,73 +3713,73 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="28"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="28"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="5" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="28"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="28"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="11" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="28"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B57" s="47" t="s">
         <v>220</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -3755,62 +3787,62 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="5" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="47"/>
       <c r="C59" s="10" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="48"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="48"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="35" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="28" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="36"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="29"/>
     </row>
     <row r="64" spans="1:3" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="7" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="5" t="s">
         <v>229</v>
       </c>
@@ -3828,6 +3860,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A57:A66"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="C62:C63"/>
@@ -3844,8 +3878,6 @@
     <mergeCell ref="B47:B56"/>
     <mergeCell ref="A47:A56"/>
     <mergeCell ref="B57:B66"/>
-    <mergeCell ref="A57:A66"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3856,8 +3888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515BFCAD-E566-482B-9E7F-8A568C1695A0}">
   <dimension ref="A2:H366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92:G99"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148:B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3899,10 +3931,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="90" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3911,64 +3943,64 @@
       <c r="D3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="82" t="s">
         <v>284</v>
       </c>
-      <c r="G3" s="116" t="s">
+      <c r="G3" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="H3" s="119"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="85"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="119"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="119"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="91" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -3977,118 +4009,118 @@
       <c r="D7" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="92" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -4097,118 +4129,118 @@
       <c r="D15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
     </row>
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="87"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="87"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="87"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="87"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="87"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="4" t="s">
         <v>94</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="B21" s="87"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="88"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="98" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -4217,118 +4249,118 @@
       <c r="D23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="92"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
-      <c r="B26" s="92"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="92"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="92"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="4" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="92"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="118"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="99" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -4337,118 +4369,118 @@
       <c r="D31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
     </row>
     <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
-      <c r="B32" s="94"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
-      <c r="B33" s="94"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
-      <c r="B34" s="94"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="94"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
-      <c r="B38" s="94"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
     </row>
     <row r="39" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="101" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -4457,76 +4489,76 @@
       <c r="D39" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
-      <c r="B40" s="95"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="95"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="101"/>
       <c r="C41" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="95"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="95"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="4" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="118"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="102" t="s">
         <v>38</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4535,118 +4567,118 @@
       <c r="D44" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F44" s="48" t="s">
+      <c r="F44" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
     </row>
     <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="96"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="96"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="96"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="96"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
+      <c r="E48" s="82"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="96"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="4" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
+      <c r="E49" s="82"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="96"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="102"/>
       <c r="C50" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="96"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="102"/>
       <c r="C51" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="90" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -4655,118 +4687,118 @@
       <c r="D52" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F52" s="48" t="s">
+      <c r="F52" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="85"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="85"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="85"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="90"/>
       <c r="C55" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="85"/>
+      <c r="A56" s="66"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="85"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="85"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="85"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="48" t="s">
+      <c r="A60" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="89" t="s">
+      <c r="B60" s="95" t="s">
         <v>104</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -4775,118 +4807,118 @@
       <c r="D60" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F60" s="48" t="s">
+      <c r="F60" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="90"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="90"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="48"/>
-      <c r="F62" s="48"/>
-      <c r="G62" s="117"/>
-      <c r="H62" s="117"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
     </row>
     <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="90"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="90"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="90"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
-      <c r="B66" s="90"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="82"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="91"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="118"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="97" t="s">
+      <c r="B68" s="80" t="s">
         <v>106</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -4895,118 +4927,118 @@
       <c r="D68" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F68" s="48" t="s">
+      <c r="F68" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G68" s="116"/>
-      <c r="H68" s="116"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
     </row>
     <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="98"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="81"/>
       <c r="C69" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
+      <c r="E69" s="82"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
     </row>
     <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="98"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="81"/>
       <c r="C70" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
+      <c r="E70" s="82"/>
+      <c r="F70" s="82"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
     </row>
     <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="98"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="81"/>
       <c r="C71" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="117"/>
+      <c r="E71" s="82"/>
+      <c r="F71" s="82"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="98"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="81"/>
       <c r="C72" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="117"/>
-      <c r="H72" s="117"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
     </row>
     <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="98"/>
+      <c r="A73" s="82"/>
+      <c r="B73" s="81"/>
       <c r="C73" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
+      <c r="E73" s="82"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="50"/>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="98"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="81"/>
       <c r="C74" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="117"/>
-      <c r="H74" s="117"/>
+      <c r="E74" s="82"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="50"/>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="B75" s="98"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="81"/>
       <c r="C75" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="118"/>
-      <c r="H75" s="118"/>
+      <c r="E75" s="82"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="B76" s="99" t="s">
+      <c r="B76" s="83" t="s">
         <v>40</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -5015,118 +5047,118 @@
       <c r="D76" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G76" s="116"/>
-      <c r="H76" s="116"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
     </row>
     <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="99"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="83"/>
       <c r="C77" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="117"/>
-      <c r="H77" s="117"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
-      <c r="B78" s="99"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="83"/>
       <c r="C78" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="117"/>
-      <c r="H78" s="117"/>
+      <c r="E78" s="82"/>
+      <c r="F78" s="82"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
     </row>
     <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
-      <c r="B79" s="99"/>
+      <c r="A79" s="82"/>
+      <c r="B79" s="83"/>
       <c r="C79" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E79" s="48"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="117"/>
-      <c r="H79" s="117"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
     </row>
     <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
-      <c r="B80" s="99"/>
+      <c r="A80" s="82"/>
+      <c r="B80" s="83"/>
       <c r="C80" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="117"/>
+      <c r="E80" s="82"/>
+      <c r="F80" s="82"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
-      <c r="B81" s="99"/>
+      <c r="A81" s="82"/>
+      <c r="B81" s="83"/>
       <c r="C81" s="4" t="s">
         <v>112</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="117"/>
-      <c r="H81" s="117"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
-      <c r="B82" s="99"/>
+      <c r="A82" s="82"/>
+      <c r="B82" s="83"/>
       <c r="C82" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E82" s="48"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="117"/>
-      <c r="H82" s="117"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="50"/>
+      <c r="H82" s="50"/>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
-      <c r="B83" s="99"/>
+      <c r="A83" s="82"/>
+      <c r="B83" s="83"/>
       <c r="C83" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="118"/>
-      <c r="H83" s="118"/>
+      <c r="E83" s="82"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B84" s="100" t="s">
+      <c r="B84" s="77" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -5135,118 +5167,118 @@
       <c r="D84" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="48" t="s">
+      <c r="E84" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F84" s="48" t="s">
+      <c r="F84" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G84" s="116"/>
-      <c r="H84" s="116"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="101"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="78"/>
       <c r="C85" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="48"/>
-      <c r="F85" s="48"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="117"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="101"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="78"/>
       <c r="C86" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
+      <c r="E86" s="82"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="50"/>
     </row>
     <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="101"/>
+      <c r="A87" s="66"/>
+      <c r="B87" s="78"/>
       <c r="C87" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="117"/>
-      <c r="H87" s="117"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="101"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="78"/>
       <c r="C88" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="48"/>
-      <c r="F88" s="48"/>
-      <c r="G88" s="117"/>
-      <c r="H88" s="117"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
     </row>
     <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="101"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="78"/>
       <c r="C89" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E89" s="48"/>
-      <c r="F89" s="48"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="117"/>
+      <c r="E89" s="82"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="B90" s="101"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="78"/>
       <c r="C90" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E90" s="48"/>
-      <c r="F90" s="48"/>
-      <c r="G90" s="117"/>
-      <c r="H90" s="117"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="102"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="79"/>
       <c r="C91" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E91" s="48"/>
-      <c r="F91" s="48"/>
-      <c r="G91" s="118"/>
-      <c r="H91" s="118"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
     </row>
     <row r="92" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="49" t="s">
+      <c r="A92" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="77" t="s">
         <v>287</v>
       </c>
       <c r="C92" s="4" t="s">
@@ -5255,120 +5287,120 @@
       <c r="D92" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E92" s="120" t="s">
+      <c r="E92" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="F92" s="123" t="s">
+      <c r="F92" s="59" t="s">
         <v>293</v>
       </c>
-      <c r="G92" s="116"/>
-      <c r="H92" s="126" t="s">
+      <c r="G92" s="49"/>
+      <c r="H92" s="52" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
-      <c r="B93" s="101"/>
+      <c r="A93" s="66"/>
+      <c r="B93" s="78"/>
       <c r="C93" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E93" s="121"/>
-      <c r="F93" s="124"/>
-      <c r="G93" s="117"/>
-      <c r="H93" s="127"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="53"/>
     </row>
     <row r="94" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="50"/>
-      <c r="B94" s="101"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="78"/>
       <c r="C94" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E94" s="121"/>
-      <c r="F94" s="124"/>
-      <c r="G94" s="117"/>
-      <c r="H94" s="127"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="50"/>
+      <c r="H94" s="53"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
-      <c r="B95" s="101"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="78"/>
       <c r="C95" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E95" s="121"/>
-      <c r="F95" s="124"/>
-      <c r="G95" s="117"/>
-      <c r="H95" s="127"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="53"/>
     </row>
     <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
-      <c r="B96" s="101"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="78"/>
       <c r="C96" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E96" s="121"/>
-      <c r="F96" s="124"/>
-      <c r="G96" s="117"/>
-      <c r="H96" s="127"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="50"/>
+      <c r="H96" s="53"/>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
-      <c r="B97" s="101"/>
+      <c r="A97" s="66"/>
+      <c r="B97" s="78"/>
       <c r="C97" s="4" t="s">
         <v>289</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E97" s="121"/>
-      <c r="F97" s="124"/>
-      <c r="G97" s="117"/>
-      <c r="H97" s="127"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="50"/>
+      <c r="H97" s="53"/>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="B98" s="101"/>
+      <c r="A98" s="66"/>
+      <c r="B98" s="78"/>
       <c r="C98" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E98" s="121"/>
-      <c r="F98" s="124"/>
-      <c r="G98" s="117"/>
-      <c r="H98" s="127"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="53"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
-      <c r="B99" s="102"/>
+      <c r="A99" s="67"/>
+      <c r="B99" s="79"/>
       <c r="C99" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E99" s="122"/>
-      <c r="F99" s="125"/>
-      <c r="G99" s="118"/>
-      <c r="H99" s="128"/>
+      <c r="E99" s="58"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="54"/>
     </row>
     <row r="100" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="49" t="s">
+      <c r="A100" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="B100" s="103" t="s">
+      <c r="B100" s="84" t="s">
         <v>42</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -5377,118 +5409,118 @@
       <c r="D100" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E100" s="48" t="s">
+      <c r="E100" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F100" s="48" t="s">
+      <c r="F100" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G100" s="116"/>
-      <c r="H100" s="116"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
     </row>
     <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
-      <c r="B101" s="104"/>
+      <c r="A101" s="66"/>
+      <c r="B101" s="85"/>
       <c r="C101" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E101" s="48"/>
-      <c r="F101" s="48"/>
-      <c r="G101" s="117"/>
-      <c r="H101" s="117"/>
+      <c r="E101" s="82"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="50"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="50"/>
-      <c r="B102" s="104"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="85"/>
       <c r="C102" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E102" s="48"/>
-      <c r="F102" s="48"/>
-      <c r="G102" s="117"/>
-      <c r="H102" s="117"/>
+      <c r="E102" s="82"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
     </row>
     <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="50"/>
-      <c r="B103" s="104"/>
+      <c r="A103" s="66"/>
+      <c r="B103" s="85"/>
       <c r="C103" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="117"/>
-      <c r="H103" s="117"/>
+      <c r="E103" s="82"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="50"/>
     </row>
     <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="50"/>
-      <c r="B104" s="104"/>
+      <c r="A104" s="66"/>
+      <c r="B104" s="85"/>
       <c r="C104" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E104" s="48"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="117"/>
-      <c r="H104" s="117"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="50"/>
+      <c r="H104" s="50"/>
     </row>
     <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
-      <c r="B105" s="104"/>
+      <c r="A105" s="66"/>
+      <c r="B105" s="85"/>
       <c r="C105" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48"/>
-      <c r="G105" s="117"/>
-      <c r="H105" s="117"/>
+      <c r="E105" s="82"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
-      <c r="B106" s="104"/>
+      <c r="A106" s="66"/>
+      <c r="B106" s="85"/>
       <c r="C106" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E106" s="48"/>
-      <c r="F106" s="48"/>
-      <c r="G106" s="117"/>
-      <c r="H106" s="117"/>
+      <c r="E106" s="82"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="105"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="86"/>
       <c r="C107" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="48"/>
-      <c r="F107" s="48"/>
-      <c r="G107" s="118"/>
-      <c r="H107" s="118"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
     </row>
     <row r="108" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="49" t="s">
+      <c r="A108" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="B108" s="77" t="s">
+      <c r="B108" s="87" t="s">
         <v>55</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -5497,118 +5529,118 @@
       <c r="D108" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E108" s="48" t="s">
+      <c r="E108" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F108" s="48" t="s">
+      <c r="F108" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G108" s="116"/>
-      <c r="H108" s="116"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
     </row>
     <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="50"/>
-      <c r="B109" s="78"/>
+      <c r="A109" s="66"/>
+      <c r="B109" s="88"/>
       <c r="C109" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E109" s="48"/>
-      <c r="F109" s="48"/>
-      <c r="G109" s="117"/>
-      <c r="H109" s="117"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="50"/>
+      <c r="H109" s="50"/>
     </row>
     <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="50"/>
-      <c r="B110" s="78"/>
+      <c r="A110" s="66"/>
+      <c r="B110" s="88"/>
       <c r="C110" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E110" s="48"/>
-      <c r="F110" s="48"/>
-      <c r="G110" s="117"/>
-      <c r="H110" s="117"/>
+      <c r="E110" s="82"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="50"/>
+      <c r="H110" s="50"/>
     </row>
     <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
-      <c r="B111" s="78"/>
+      <c r="A111" s="66"/>
+      <c r="B111" s="88"/>
       <c r="C111" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E111" s="48"/>
-      <c r="F111" s="48"/>
-      <c r="G111" s="117"/>
-      <c r="H111" s="117"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="50"/>
+      <c r="H111" s="50"/>
     </row>
     <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
-      <c r="B112" s="78"/>
+      <c r="A112" s="66"/>
+      <c r="B112" s="88"/>
       <c r="C112" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E112" s="48"/>
-      <c r="F112" s="48"/>
-      <c r="G112" s="117"/>
-      <c r="H112" s="117"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
     </row>
     <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="50"/>
-      <c r="B113" s="78"/>
+      <c r="A113" s="66"/>
+      <c r="B113" s="88"/>
       <c r="C113" s="4" t="s">
         <v>126</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E113" s="48"/>
-      <c r="F113" s="48"/>
-      <c r="G113" s="117"/>
-      <c r="H113" s="117"/>
+      <c r="E113" s="82"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="50"/>
+      <c r="H113" s="50"/>
     </row>
     <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="50"/>
-      <c r="B114" s="78"/>
+      <c r="A114" s="66"/>
+      <c r="B114" s="88"/>
       <c r="C114" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E114" s="48"/>
-      <c r="F114" s="48"/>
-      <c r="G114" s="117"/>
-      <c r="H114" s="117"/>
+      <c r="E114" s="82"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50"/>
     </row>
     <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
-      <c r="B115" s="79"/>
+      <c r="A115" s="67"/>
+      <c r="B115" s="89"/>
       <c r="C115" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E115" s="48"/>
-      <c r="F115" s="48"/>
-      <c r="G115" s="118"/>
-      <c r="H115" s="118"/>
+      <c r="E115" s="82"/>
+      <c r="F115" s="82"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
     </row>
     <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="49" t="s">
+      <c r="A116" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="B116" s="106" t="s">
+      <c r="B116" s="62" t="s">
         <v>127</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -5617,118 +5649,118 @@
       <c r="D116" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E116" s="48" t="s">
+      <c r="E116" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F116" s="48" t="s">
+      <c r="F116" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G116" s="116"/>
-      <c r="H116" s="116"/>
+      <c r="G116" s="49"/>
+      <c r="H116" s="49"/>
     </row>
     <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="50"/>
-      <c r="B117" s="107"/>
+      <c r="A117" s="66"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="117"/>
-      <c r="H117" s="117"/>
+      <c r="E117" s="82"/>
+      <c r="F117" s="82"/>
+      <c r="G117" s="50"/>
+      <c r="H117" s="50"/>
     </row>
     <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="50"/>
-      <c r="B118" s="107"/>
+      <c r="A118" s="66"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="117"/>
-      <c r="H118" s="117"/>
+      <c r="E118" s="82"/>
+      <c r="F118" s="82"/>
+      <c r="G118" s="50"/>
+      <c r="H118" s="50"/>
     </row>
     <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="50"/>
-      <c r="B119" s="107"/>
+      <c r="A119" s="66"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="117"/>
-      <c r="H119" s="117"/>
+      <c r="E119" s="82"/>
+      <c r="F119" s="82"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="50"/>
     </row>
     <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="50"/>
-      <c r="B120" s="107"/>
+      <c r="A120" s="66"/>
+      <c r="B120" s="63"/>
       <c r="C120" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E120" s="48"/>
-      <c r="F120" s="48"/>
-      <c r="G120" s="117"/>
-      <c r="H120" s="117"/>
+      <c r="E120" s="82"/>
+      <c r="F120" s="82"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="50"/>
     </row>
     <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="50"/>
-      <c r="B121" s="107"/>
+      <c r="A121" s="66"/>
+      <c r="B121" s="63"/>
       <c r="C121" s="4" t="s">
         <v>129</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E121" s="48"/>
-      <c r="F121" s="48"/>
-      <c r="G121" s="117"/>
-      <c r="H121" s="117"/>
+      <c r="E121" s="82"/>
+      <c r="F121" s="82"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="50"/>
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="50"/>
-      <c r="B122" s="107"/>
+      <c r="A122" s="66"/>
+      <c r="B122" s="63"/>
       <c r="C122" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="117"/>
-      <c r="H122" s="117"/>
+      <c r="E122" s="82"/>
+      <c r="F122" s="82"/>
+      <c r="G122" s="50"/>
+      <c r="H122" s="50"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="51"/>
-      <c r="B123" s="108"/>
+      <c r="A123" s="67"/>
+      <c r="B123" s="64"/>
       <c r="C123" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E123" s="48"/>
-      <c r="F123" s="48"/>
-      <c r="G123" s="118"/>
-      <c r="H123" s="118"/>
+      <c r="E123" s="82"/>
+      <c r="F123" s="82"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
     </row>
     <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="49" t="s">
+      <c r="A124" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="71" t="s">
+      <c r="B124" s="68" t="s">
         <v>130</v>
       </c>
       <c r="C124" s="4" t="s">
@@ -5737,118 +5769,118 @@
       <c r="D124" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E124" s="48" t="s">
+      <c r="E124" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F124" s="48" t="s">
+      <c r="F124" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G124" s="116"/>
-      <c r="H124" s="116"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="49"/>
     </row>
     <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
-      <c r="B125" s="72"/>
+      <c r="A125" s="66"/>
+      <c r="B125" s="69"/>
       <c r="C125" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E125" s="48"/>
-      <c r="F125" s="48"/>
-      <c r="G125" s="117"/>
-      <c r="H125" s="117"/>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
     </row>
     <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
-      <c r="B126" s="72"/>
+      <c r="A126" s="66"/>
+      <c r="B126" s="69"/>
       <c r="C126" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E126" s="48"/>
-      <c r="F126" s="48"/>
-      <c r="G126" s="117"/>
-      <c r="H126" s="117"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
+      <c r="G126" s="50"/>
+      <c r="H126" s="50"/>
     </row>
     <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
-      <c r="B127" s="72"/>
+      <c r="A127" s="66"/>
+      <c r="B127" s="69"/>
       <c r="C127" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E127" s="48"/>
-      <c r="F127" s="48"/>
-      <c r="G127" s="117"/>
-      <c r="H127" s="117"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
+      <c r="G127" s="50"/>
+      <c r="H127" s="50"/>
     </row>
     <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
-      <c r="B128" s="72"/>
+      <c r="A128" s="66"/>
+      <c r="B128" s="69"/>
       <c r="C128" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E128" s="48"/>
-      <c r="F128" s="48"/>
-      <c r="G128" s="117"/>
-      <c r="H128" s="117"/>
+      <c r="E128" s="82"/>
+      <c r="F128" s="82"/>
+      <c r="G128" s="50"/>
+      <c r="H128" s="50"/>
     </row>
     <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
-      <c r="B129" s="72"/>
+      <c r="A129" s="66"/>
+      <c r="B129" s="69"/>
       <c r="C129" s="4" t="s">
         <v>131</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E129" s="48"/>
-      <c r="F129" s="48"/>
-      <c r="G129" s="117"/>
-      <c r="H129" s="117"/>
+      <c r="E129" s="82"/>
+      <c r="F129" s="82"/>
+      <c r="G129" s="50"/>
+      <c r="H129" s="50"/>
     </row>
     <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
-      <c r="B130" s="72"/>
+      <c r="A130" s="66"/>
+      <c r="B130" s="69"/>
       <c r="C130" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E130" s="48"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="117"/>
-      <c r="H130" s="117"/>
+      <c r="E130" s="82"/>
+      <c r="F130" s="82"/>
+      <c r="G130" s="50"/>
+      <c r="H130" s="50"/>
     </row>
     <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="51"/>
-      <c r="B131" s="73"/>
+      <c r="A131" s="67"/>
+      <c r="B131" s="70"/>
       <c r="C131" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E131" s="48"/>
-      <c r="F131" s="48"/>
-      <c r="G131" s="118"/>
-      <c r="H131" s="118"/>
+      <c r="E131" s="82"/>
+      <c r="F131" s="82"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
     </row>
     <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="49" t="s">
+      <c r="A132" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B132" s="109" t="s">
+      <c r="B132" s="71" t="s">
         <v>133</v>
       </c>
       <c r="C132" s="4" t="s">
@@ -5857,118 +5889,118 @@
       <c r="D132" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E132" s="48" t="s">
+      <c r="E132" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F132" s="48" t="s">
+      <c r="F132" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G132" s="116"/>
-      <c r="H132" s="116"/>
+      <c r="G132" s="49"/>
+      <c r="H132" s="49"/>
     </row>
     <row r="133" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="50"/>
-      <c r="B133" s="110"/>
+      <c r="A133" s="66"/>
+      <c r="B133" s="72"/>
       <c r="C133" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E133" s="48"/>
-      <c r="F133" s="48"/>
-      <c r="G133" s="117"/>
-      <c r="H133" s="117"/>
+      <c r="E133" s="82"/>
+      <c r="F133" s="82"/>
+      <c r="G133" s="50"/>
+      <c r="H133" s="50"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="50"/>
-      <c r="B134" s="110"/>
+      <c r="A134" s="66"/>
+      <c r="B134" s="72"/>
       <c r="C134" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E134" s="48"/>
-      <c r="F134" s="48"/>
-      <c r="G134" s="117"/>
-      <c r="H134" s="117"/>
+      <c r="E134" s="82"/>
+      <c r="F134" s="82"/>
+      <c r="G134" s="50"/>
+      <c r="H134" s="50"/>
     </row>
     <row r="135" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
-      <c r="B135" s="110"/>
+      <c r="A135" s="66"/>
+      <c r="B135" s="72"/>
       <c r="C135" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E135" s="48"/>
-      <c r="F135" s="48"/>
-      <c r="G135" s="117"/>
-      <c r="H135" s="117"/>
+      <c r="E135" s="82"/>
+      <c r="F135" s="82"/>
+      <c r="G135" s="50"/>
+      <c r="H135" s="50"/>
     </row>
     <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="50"/>
-      <c r="B136" s="110"/>
+      <c r="A136" s="66"/>
+      <c r="B136" s="72"/>
       <c r="C136" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E136" s="48"/>
-      <c r="F136" s="48"/>
-      <c r="G136" s="117"/>
-      <c r="H136" s="117"/>
+      <c r="E136" s="82"/>
+      <c r="F136" s="82"/>
+      <c r="G136" s="50"/>
+      <c r="H136" s="50"/>
     </row>
     <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="50"/>
-      <c r="B137" s="110"/>
+      <c r="A137" s="66"/>
+      <c r="B137" s="72"/>
       <c r="C137" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E137" s="48"/>
-      <c r="F137" s="48"/>
-      <c r="G137" s="117"/>
-      <c r="H137" s="117"/>
+      <c r="E137" s="82"/>
+      <c r="F137" s="82"/>
+      <c r="G137" s="50"/>
+      <c r="H137" s="50"/>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="50"/>
-      <c r="B138" s="110"/>
+      <c r="A138" s="66"/>
+      <c r="B138" s="72"/>
       <c r="C138" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E138" s="48"/>
-      <c r="F138" s="48"/>
-      <c r="G138" s="117"/>
-      <c r="H138" s="117"/>
+      <c r="E138" s="82"/>
+      <c r="F138" s="82"/>
+      <c r="G138" s="50"/>
+      <c r="H138" s="50"/>
     </row>
     <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
-      <c r="B139" s="111"/>
+      <c r="A139" s="67"/>
+      <c r="B139" s="73"/>
       <c r="C139" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E139" s="48"/>
-      <c r="F139" s="48"/>
-      <c r="G139" s="118"/>
-      <c r="H139" s="118"/>
+      <c r="E139" s="82"/>
+      <c r="F139" s="82"/>
+      <c r="G139" s="51"/>
+      <c r="H139" s="51"/>
     </row>
     <row r="140" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="49" t="s">
+      <c r="A140" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="112" t="s">
+      <c r="B140" s="74" t="s">
         <v>141</v>
       </c>
       <c r="C140" s="4" t="s">
@@ -5977,118 +6009,118 @@
       <c r="D140" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E140" s="48" t="s">
+      <c r="E140" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F140" s="48" t="s">
+      <c r="F140" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G140" s="116"/>
-      <c r="H140" s="116"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="49"/>
     </row>
     <row r="141" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="50"/>
-      <c r="B141" s="113"/>
+      <c r="A141" s="66"/>
+      <c r="B141" s="75"/>
       <c r="C141" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E141" s="48"/>
-      <c r="F141" s="48"/>
-      <c r="G141" s="117"/>
-      <c r="H141" s="117"/>
+      <c r="E141" s="82"/>
+      <c r="F141" s="82"/>
+      <c r="G141" s="50"/>
+      <c r="H141" s="50"/>
     </row>
     <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="50"/>
-      <c r="B142" s="113"/>
+      <c r="A142" s="66"/>
+      <c r="B142" s="75"/>
       <c r="C142" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E142" s="48"/>
-      <c r="F142" s="48"/>
-      <c r="G142" s="117"/>
-      <c r="H142" s="117"/>
+      <c r="E142" s="82"/>
+      <c r="F142" s="82"/>
+      <c r="G142" s="50"/>
+      <c r="H142" s="50"/>
     </row>
     <row r="143" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="50"/>
-      <c r="B143" s="113"/>
+      <c r="A143" s="66"/>
+      <c r="B143" s="75"/>
       <c r="C143" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E143" s="48"/>
-      <c r="F143" s="48"/>
-      <c r="G143" s="117"/>
-      <c r="H143" s="117"/>
+      <c r="E143" s="82"/>
+      <c r="F143" s="82"/>
+      <c r="G143" s="50"/>
+      <c r="H143" s="50"/>
     </row>
     <row r="144" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="50"/>
-      <c r="B144" s="113"/>
+      <c r="A144" s="66"/>
+      <c r="B144" s="75"/>
       <c r="C144" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E144" s="48"/>
-      <c r="F144" s="48"/>
-      <c r="G144" s="117"/>
-      <c r="H144" s="117"/>
+      <c r="E144" s="82"/>
+      <c r="F144" s="82"/>
+      <c r="G144" s="50"/>
+      <c r="H144" s="50"/>
     </row>
     <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="50"/>
-      <c r="B145" s="113"/>
+      <c r="A145" s="66"/>
+      <c r="B145" s="75"/>
       <c r="C145" s="4" t="s">
         <v>142</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E145" s="48"/>
-      <c r="F145" s="48"/>
-      <c r="G145" s="117"/>
-      <c r="H145" s="117"/>
+      <c r="E145" s="82"/>
+      <c r="F145" s="82"/>
+      <c r="G145" s="50"/>
+      <c r="H145" s="50"/>
     </row>
     <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="50"/>
-      <c r="B146" s="113"/>
+      <c r="A146" s="66"/>
+      <c r="B146" s="75"/>
       <c r="C146" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E146" s="48"/>
-      <c r="F146" s="48"/>
-      <c r="G146" s="117"/>
-      <c r="H146" s="117"/>
+      <c r="E146" s="82"/>
+      <c r="F146" s="82"/>
+      <c r="G146" s="50"/>
+      <c r="H146" s="50"/>
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A147" s="51"/>
-      <c r="B147" s="114"/>
+      <c r="A147" s="67"/>
+      <c r="B147" s="76"/>
       <c r="C147" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E147" s="48"/>
-      <c r="F147" s="48"/>
-      <c r="G147" s="118"/>
-      <c r="H147" s="118"/>
+      <c r="E147" s="82"/>
+      <c r="F147" s="82"/>
+      <c r="G147" s="51"/>
+      <c r="H147" s="51"/>
     </row>
     <row r="148" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="48" t="s">
+      <c r="A148" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="B148" s="83" t="s">
+      <c r="B148" s="135" t="s">
         <v>104</v>
       </c>
       <c r="C148" s="4" t="s">
@@ -6097,118 +6129,118 @@
       <c r="D148" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E148" s="48" t="s">
+      <c r="E148" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F148" s="48" t="s">
+      <c r="F148" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G148" s="116"/>
-      <c r="H148" s="116"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="49"/>
     </row>
     <row r="149" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
-      <c r="B149" s="83"/>
+      <c r="A149" s="82"/>
+      <c r="B149" s="135"/>
       <c r="C149" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48"/>
-      <c r="G149" s="117"/>
-      <c r="H149" s="117"/>
+      <c r="E149" s="82"/>
+      <c r="F149" s="82"/>
+      <c r="G149" s="50"/>
+      <c r="H149" s="50"/>
     </row>
     <row r="150" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
-      <c r="B150" s="83"/>
+      <c r="A150" s="82"/>
+      <c r="B150" s="135"/>
       <c r="C150" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E150" s="48"/>
-      <c r="F150" s="48"/>
-      <c r="G150" s="117"/>
-      <c r="H150" s="117"/>
+      <c r="E150" s="82"/>
+      <c r="F150" s="82"/>
+      <c r="G150" s="50"/>
+      <c r="H150" s="50"/>
     </row>
     <row r="151" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
-      <c r="B151" s="83"/>
+      <c r="A151" s="82"/>
+      <c r="B151" s="135"/>
       <c r="C151" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E151" s="48"/>
-      <c r="F151" s="48"/>
-      <c r="G151" s="117"/>
-      <c r="H151" s="117"/>
+      <c r="E151" s="82"/>
+      <c r="F151" s="82"/>
+      <c r="G151" s="50"/>
+      <c r="H151" s="50"/>
     </row>
     <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
-      <c r="B152" s="83"/>
+      <c r="A152" s="82"/>
+      <c r="B152" s="135"/>
       <c r="C152" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E152" s="48"/>
-      <c r="F152" s="48"/>
-      <c r="G152" s="117"/>
-      <c r="H152" s="117"/>
+      <c r="E152" s="82"/>
+      <c r="F152" s="82"/>
+      <c r="G152" s="50"/>
+      <c r="H152" s="50"/>
     </row>
     <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
-      <c r="B153" s="83"/>
+      <c r="A153" s="82"/>
+      <c r="B153" s="135"/>
       <c r="C153" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E153" s="48"/>
-      <c r="F153" s="48"/>
-      <c r="G153" s="117"/>
-      <c r="H153" s="117"/>
+      <c r="E153" s="82"/>
+      <c r="F153" s="82"/>
+      <c r="G153" s="50"/>
+      <c r="H153" s="50"/>
     </row>
     <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
-      <c r="B154" s="83"/>
+      <c r="A154" s="82"/>
+      <c r="B154" s="135"/>
       <c r="C154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E154" s="48"/>
-      <c r="F154" s="48"/>
-      <c r="G154" s="117"/>
-      <c r="H154" s="117"/>
+      <c r="E154" s="82"/>
+      <c r="F154" s="82"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="50"/>
     </row>
     <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
-      <c r="B155" s="83"/>
+      <c r="A155" s="82"/>
+      <c r="B155" s="135"/>
       <c r="C155" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E155" s="48"/>
-      <c r="F155" s="48"/>
-      <c r="G155" s="118"/>
-      <c r="H155" s="118"/>
+      <c r="E155" s="82"/>
+      <c r="F155" s="82"/>
+      <c r="G155" s="51"/>
+      <c r="H155" s="51"/>
     </row>
     <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="48" t="s">
+      <c r="A156" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="B156" s="84" t="s">
+      <c r="B156" s="107" t="s">
         <v>106</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -6217,118 +6249,120 @@
       <c r="D156" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E156" s="48" t="s">
+      <c r="E156" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F156" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="G156" s="116"/>
-      <c r="H156" s="116"/>
+      <c r="F156" s="128" t="s">
+        <v>295</v>
+      </c>
+      <c r="G156" s="49"/>
+      <c r="H156" s="52" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
-      <c r="B157" s="84"/>
+      <c r="A157" s="129"/>
+      <c r="B157" s="107"/>
       <c r="C157" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E157" s="48"/>
-      <c r="F157" s="48"/>
-      <c r="G157" s="117"/>
-      <c r="H157" s="117"/>
+      <c r="E157" s="82"/>
+      <c r="F157" s="128"/>
+      <c r="G157" s="50"/>
+      <c r="H157" s="53"/>
     </row>
     <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
-      <c r="B158" s="84"/>
+      <c r="A158" s="129"/>
+      <c r="B158" s="107"/>
       <c r="C158" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E158" s="48"/>
-      <c r="F158" s="48"/>
-      <c r="G158" s="117"/>
-      <c r="H158" s="117"/>
+      <c r="E158" s="82"/>
+      <c r="F158" s="128"/>
+      <c r="G158" s="50"/>
+      <c r="H158" s="53"/>
     </row>
     <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
-      <c r="B159" s="84"/>
+      <c r="A159" s="129"/>
+      <c r="B159" s="107"/>
       <c r="C159" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E159" s="48"/>
-      <c r="F159" s="48"/>
-      <c r="G159" s="117"/>
-      <c r="H159" s="117"/>
+      <c r="E159" s="82"/>
+      <c r="F159" s="128"/>
+      <c r="G159" s="50"/>
+      <c r="H159" s="53"/>
     </row>
     <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
-      <c r="B160" s="84"/>
+      <c r="A160" s="129"/>
+      <c r="B160" s="107"/>
       <c r="C160" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E160" s="48"/>
-      <c r="F160" s="48"/>
-      <c r="G160" s="117"/>
-      <c r="H160" s="117"/>
+      <c r="E160" s="82"/>
+      <c r="F160" s="128"/>
+      <c r="G160" s="50"/>
+      <c r="H160" s="53"/>
     </row>
     <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
-      <c r="B161" s="84"/>
+      <c r="A161" s="129"/>
+      <c r="B161" s="107"/>
       <c r="C161" s="4" t="s">
         <v>151</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E161" s="48"/>
-      <c r="F161" s="48"/>
-      <c r="G161" s="117"/>
-      <c r="H161" s="117"/>
+      <c r="E161" s="82"/>
+      <c r="F161" s="128"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="53"/>
     </row>
     <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
-      <c r="B162" s="84"/>
+      <c r="A162" s="129"/>
+      <c r="B162" s="107"/>
       <c r="C162" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E162" s="48"/>
-      <c r="F162" s="48"/>
-      <c r="G162" s="117"/>
-      <c r="H162" s="117"/>
+      <c r="E162" s="82"/>
+      <c r="F162" s="128"/>
+      <c r="G162" s="50"/>
+      <c r="H162" s="53"/>
     </row>
     <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
-      <c r="B163" s="84"/>
+      <c r="A163" s="129"/>
+      <c r="B163" s="107"/>
       <c r="C163" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E163" s="48"/>
-      <c r="F163" s="48"/>
-      <c r="G163" s="118"/>
-      <c r="H163" s="118"/>
+      <c r="E163" s="82"/>
+      <c r="F163" s="128"/>
+      <c r="G163" s="51"/>
+      <c r="H163" s="54"/>
     </row>
     <row r="164" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="49" t="s">
+      <c r="A164" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="B164" s="54" t="s">
+      <c r="B164" s="108" t="s">
         <v>154</v>
       </c>
       <c r="C164" s="4" t="s">
@@ -6337,118 +6371,118 @@
       <c r="D164" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E164" s="48" t="s">
+      <c r="E164" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F164" s="48" t="s">
+      <c r="F164" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G164" s="116"/>
-      <c r="H164" s="116"/>
+      <c r="G164" s="49"/>
+      <c r="H164" s="49"/>
     </row>
     <row r="165" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A165" s="50"/>
-      <c r="B165" s="54"/>
+      <c r="A165" s="66"/>
+      <c r="B165" s="108"/>
       <c r="C165" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E165" s="48"/>
-      <c r="F165" s="48"/>
-      <c r="G165" s="117"/>
-      <c r="H165" s="117"/>
+      <c r="E165" s="82"/>
+      <c r="F165" s="82"/>
+      <c r="G165" s="50"/>
+      <c r="H165" s="50"/>
     </row>
     <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="50"/>
-      <c r="B166" s="54"/>
+      <c r="A166" s="66"/>
+      <c r="B166" s="108"/>
       <c r="C166" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E166" s="48"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="117"/>
-      <c r="H166" s="117"/>
+      <c r="E166" s="82"/>
+      <c r="F166" s="82"/>
+      <c r="G166" s="50"/>
+      <c r="H166" s="50"/>
     </row>
     <row r="167" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A167" s="50"/>
-      <c r="B167" s="54"/>
+      <c r="A167" s="66"/>
+      <c r="B167" s="108"/>
       <c r="C167" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="117"/>
-      <c r="H167" s="117"/>
+      <c r="E167" s="82"/>
+      <c r="F167" s="82"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="50"/>
     </row>
     <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="50"/>
-      <c r="B168" s="54"/>
+      <c r="A168" s="66"/>
+      <c r="B168" s="108"/>
       <c r="C168" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E168" s="48"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="117"/>
-      <c r="H168" s="117"/>
+      <c r="E168" s="82"/>
+      <c r="F168" s="82"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="50"/>
-      <c r="B169" s="54"/>
+      <c r="A169" s="66"/>
+      <c r="B169" s="108"/>
       <c r="C169" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
-      <c r="G169" s="117"/>
-      <c r="H169" s="117"/>
+      <c r="E169" s="82"/>
+      <c r="F169" s="82"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="50"/>
     </row>
     <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="50"/>
-      <c r="B170" s="54"/>
+      <c r="A170" s="66"/>
+      <c r="B170" s="108"/>
       <c r="C170" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E170" s="48"/>
-      <c r="F170" s="48"/>
-      <c r="G170" s="117"/>
-      <c r="H170" s="117"/>
+      <c r="E170" s="82"/>
+      <c r="F170" s="82"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="50"/>
     </row>
     <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="51"/>
-      <c r="B171" s="54"/>
+      <c r="A171" s="67"/>
+      <c r="B171" s="108"/>
       <c r="C171" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E171" s="48"/>
-      <c r="F171" s="48"/>
-      <c r="G171" s="118"/>
-      <c r="H171" s="118"/>
+      <c r="E171" s="82"/>
+      <c r="F171" s="82"/>
+      <c r="G171" s="51"/>
+      <c r="H171" s="51"/>
     </row>
     <row r="172" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="48" t="s">
+      <c r="A172" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="B172" s="80" t="s">
+      <c r="B172" s="103" t="s">
         <v>157</v>
       </c>
       <c r="C172" s="4" t="s">
@@ -6457,118 +6491,118 @@
       <c r="D172" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E172" s="48" t="s">
+      <c r="E172" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F172" s="48" t="s">
+      <c r="F172" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G172" s="116"/>
-      <c r="H172" s="116"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="49"/>
     </row>
     <row r="173" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
-      <c r="B173" s="81"/>
+      <c r="A173" s="82"/>
+      <c r="B173" s="104"/>
       <c r="C173" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E173" s="48"/>
-      <c r="F173" s="48"/>
-      <c r="G173" s="117"/>
-      <c r="H173" s="117"/>
+      <c r="E173" s="82"/>
+      <c r="F173" s="82"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="50"/>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
-      <c r="B174" s="81"/>
+      <c r="A174" s="82"/>
+      <c r="B174" s="104"/>
       <c r="C174" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E174" s="48"/>
-      <c r="F174" s="48"/>
-      <c r="G174" s="117"/>
-      <c r="H174" s="117"/>
+      <c r="E174" s="82"/>
+      <c r="F174" s="82"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="50"/>
     </row>
     <row r="175" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
-      <c r="B175" s="81"/>
+      <c r="A175" s="82"/>
+      <c r="B175" s="104"/>
       <c r="C175" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E175" s="48"/>
-      <c r="F175" s="48"/>
-      <c r="G175" s="117"/>
-      <c r="H175" s="117"/>
+      <c r="E175" s="82"/>
+      <c r="F175" s="82"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="50"/>
     </row>
     <row r="176" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
-      <c r="B176" s="81"/>
+      <c r="A176" s="82"/>
+      <c r="B176" s="104"/>
       <c r="C176" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D176" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E176" s="48"/>
-      <c r="F176" s="48"/>
-      <c r="G176" s="117"/>
-      <c r="H176" s="117"/>
+      <c r="E176" s="82"/>
+      <c r="F176" s="82"/>
+      <c r="G176" s="50"/>
+      <c r="H176" s="50"/>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
-      <c r="B177" s="81"/>
+      <c r="A177" s="82"/>
+      <c r="B177" s="104"/>
       <c r="C177" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E177" s="48"/>
-      <c r="F177" s="48"/>
-      <c r="G177" s="117"/>
-      <c r="H177" s="117"/>
+      <c r="E177" s="82"/>
+      <c r="F177" s="82"/>
+      <c r="G177" s="50"/>
+      <c r="H177" s="50"/>
     </row>
     <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="48"/>
-      <c r="B178" s="81"/>
+      <c r="A178" s="82"/>
+      <c r="B178" s="104"/>
       <c r="C178" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E178" s="48"/>
-      <c r="F178" s="48"/>
-      <c r="G178" s="117"/>
-      <c r="H178" s="117"/>
+      <c r="E178" s="82"/>
+      <c r="F178" s="82"/>
+      <c r="G178" s="50"/>
+      <c r="H178" s="50"/>
     </row>
     <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
-      <c r="B179" s="81"/>
+      <c r="A179" s="82"/>
+      <c r="B179" s="104"/>
       <c r="C179" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E179" s="48"/>
-      <c r="F179" s="48"/>
-      <c r="G179" s="118"/>
-      <c r="H179" s="118"/>
+      <c r="E179" s="82"/>
+      <c r="F179" s="82"/>
+      <c r="G179" s="51"/>
+      <c r="H179" s="51"/>
     </row>
     <row r="180" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="48" t="s">
+      <c r="A180" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="B180" s="82" t="s">
+      <c r="B180" s="105" t="s">
         <v>27</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -6577,118 +6611,118 @@
       <c r="D180" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E180" s="48" t="s">
+      <c r="E180" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F180" s="48" t="s">
+      <c r="F180" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G180" s="116"/>
-      <c r="H180" s="116"/>
+      <c r="G180" s="49"/>
+      <c r="H180" s="49"/>
     </row>
     <row r="181" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
-      <c r="B181" s="82"/>
+      <c r="A181" s="82"/>
+      <c r="B181" s="105"/>
       <c r="C181" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="117"/>
-      <c r="H181" s="117"/>
+      <c r="E181" s="82"/>
+      <c r="F181" s="82"/>
+      <c r="G181" s="50"/>
+      <c r="H181" s="50"/>
     </row>
     <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="48"/>
-      <c r="B182" s="82"/>
+      <c r="A182" s="82"/>
+      <c r="B182" s="105"/>
       <c r="C182" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E182" s="48"/>
-      <c r="F182" s="48"/>
-      <c r="G182" s="117"/>
-      <c r="H182" s="117"/>
+      <c r="E182" s="82"/>
+      <c r="F182" s="82"/>
+      <c r="G182" s="50"/>
+      <c r="H182" s="50"/>
     </row>
     <row r="183" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A183" s="48"/>
-      <c r="B183" s="82"/>
+      <c r="A183" s="82"/>
+      <c r="B183" s="105"/>
       <c r="C183" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E183" s="48"/>
-      <c r="F183" s="48"/>
-      <c r="G183" s="117"/>
-      <c r="H183" s="117"/>
+      <c r="E183" s="82"/>
+      <c r="F183" s="82"/>
+      <c r="G183" s="50"/>
+      <c r="H183" s="50"/>
     </row>
     <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
-      <c r="B184" s="82"/>
+      <c r="A184" s="82"/>
+      <c r="B184" s="105"/>
       <c r="C184" s="4" t="s">
         <v>162</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E184" s="48"/>
-      <c r="F184" s="48"/>
-      <c r="G184" s="117"/>
-      <c r="H184" s="117"/>
+      <c r="E184" s="82"/>
+      <c r="F184" s="82"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="50"/>
     </row>
     <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
-      <c r="B185" s="82"/>
+      <c r="A185" s="82"/>
+      <c r="B185" s="105"/>
       <c r="C185" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E185" s="48"/>
-      <c r="F185" s="48"/>
-      <c r="G185" s="117"/>
-      <c r="H185" s="117"/>
+      <c r="E185" s="82"/>
+      <c r="F185" s="82"/>
+      <c r="G185" s="50"/>
+      <c r="H185" s="50"/>
     </row>
     <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="48"/>
-      <c r="B186" s="82"/>
+      <c r="A186" s="82"/>
+      <c r="B186" s="105"/>
       <c r="C186" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D186" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E186" s="48"/>
-      <c r="F186" s="48"/>
-      <c r="G186" s="117"/>
-      <c r="H186" s="117"/>
+      <c r="E186" s="82"/>
+      <c r="F186" s="82"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="50"/>
     </row>
     <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A187" s="48"/>
-      <c r="B187" s="82"/>
+      <c r="A187" s="82"/>
+      <c r="B187" s="105"/>
       <c r="C187" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E187" s="48"/>
-      <c r="F187" s="48"/>
-      <c r="G187" s="118"/>
-      <c r="H187" s="118"/>
+      <c r="E187" s="82"/>
+      <c r="F187" s="82"/>
+      <c r="G187" s="51"/>
+      <c r="H187" s="51"/>
     </row>
     <row r="188" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="48" t="s">
+      <c r="A188" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="B188" s="57" t="s">
+      <c r="B188" s="106" t="s">
         <v>172</v>
       </c>
       <c r="C188" s="3" t="s">
@@ -6697,132 +6731,132 @@
       <c r="D188" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E188" s="48" t="s">
+      <c r="E188" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F188" s="48" t="s">
+      <c r="F188" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G188" s="116"/>
-      <c r="H188" s="116"/>
+      <c r="G188" s="49"/>
+      <c r="H188" s="49"/>
     </row>
     <row r="189" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
-      <c r="B189" s="57"/>
+      <c r="A189" s="82"/>
+      <c r="B189" s="106"/>
       <c r="C189" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E189" s="48"/>
-      <c r="F189" s="48"/>
-      <c r="G189" s="117"/>
-      <c r="H189" s="117"/>
+      <c r="E189" s="82"/>
+      <c r="F189" s="82"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
     </row>
     <row r="190" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
-      <c r="B190" s="57"/>
+      <c r="A190" s="82"/>
+      <c r="B190" s="106"/>
       <c r="C190" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D190" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E190" s="48"/>
-      <c r="F190" s="48"/>
-      <c r="G190" s="117"/>
-      <c r="H190" s="117"/>
+      <c r="E190" s="82"/>
+      <c r="F190" s="82"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="50"/>
     </row>
     <row r="191" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="48"/>
-      <c r="B191" s="57"/>
+      <c r="A191" s="82"/>
+      <c r="B191" s="106"/>
       <c r="C191" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E191" s="48"/>
-      <c r="F191" s="48"/>
-      <c r="G191" s="117"/>
-      <c r="H191" s="117"/>
+      <c r="E191" s="82"/>
+      <c r="F191" s="82"/>
+      <c r="G191" s="50"/>
+      <c r="H191" s="50"/>
     </row>
     <row r="192" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="48"/>
-      <c r="B192" s="57"/>
+      <c r="A192" s="82"/>
+      <c r="B192" s="106"/>
       <c r="C192" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D192" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E192" s="48"/>
-      <c r="F192" s="48"/>
-      <c r="G192" s="117"/>
-      <c r="H192" s="117"/>
+      <c r="E192" s="82"/>
+      <c r="F192" s="82"/>
+      <c r="G192" s="50"/>
+      <c r="H192" s="50"/>
     </row>
     <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="48"/>
-      <c r="B193" s="57"/>
+      <c r="A193" s="82"/>
+      <c r="B193" s="106"/>
       <c r="C193" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E193" s="48"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="117"/>
-      <c r="H193" s="117"/>
+      <c r="E193" s="82"/>
+      <c r="F193" s="82"/>
+      <c r="G193" s="50"/>
+      <c r="H193" s="50"/>
     </row>
     <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
-      <c r="B194" s="57"/>
+      <c r="A194" s="82"/>
+      <c r="B194" s="106"/>
       <c r="C194" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
-      <c r="G194" s="117"/>
-      <c r="H194" s="117"/>
+      <c r="E194" s="82"/>
+      <c r="F194" s="82"/>
+      <c r="G194" s="50"/>
+      <c r="H194" s="50"/>
     </row>
     <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
-      <c r="B195" s="57"/>
+      <c r="A195" s="82"/>
+      <c r="B195" s="106"/>
       <c r="C195" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E195" s="48"/>
-      <c r="F195" s="48"/>
-      <c r="G195" s="117"/>
-      <c r="H195" s="117"/>
+      <c r="E195" s="82"/>
+      <c r="F195" s="82"/>
+      <c r="G195" s="50"/>
+      <c r="H195" s="50"/>
     </row>
     <row r="196" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A196" s="48"/>
-      <c r="B196" s="57"/>
+      <c r="A196" s="82"/>
+      <c r="B196" s="106"/>
       <c r="C196" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E196" s="48"/>
-      <c r="F196" s="48"/>
-      <c r="G196" s="118"/>
-      <c r="H196" s="118"/>
+      <c r="E196" s="82"/>
+      <c r="F196" s="82"/>
+      <c r="G196" s="51"/>
+      <c r="H196" s="51"/>
     </row>
     <row r="197" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="48" t="s">
+      <c r="A197" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="B197" s="71" t="s">
+      <c r="B197" s="68" t="s">
         <v>183</v>
       </c>
       <c r="C197" s="3" t="s">
@@ -6831,132 +6865,132 @@
       <c r="D197" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E197" s="48" t="s">
+      <c r="E197" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F197" s="48" t="s">
+      <c r="F197" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G197" s="116"/>
-      <c r="H197" s="116"/>
+      <c r="G197" s="49"/>
+      <c r="H197" s="49"/>
     </row>
     <row r="198" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="48"/>
-      <c r="B198" s="72"/>
+      <c r="A198" s="82"/>
+      <c r="B198" s="69"/>
       <c r="C198" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E198" s="48"/>
-      <c r="F198" s="48"/>
-      <c r="G198" s="117"/>
-      <c r="H198" s="117"/>
+      <c r="E198" s="82"/>
+      <c r="F198" s="82"/>
+      <c r="G198" s="50"/>
+      <c r="H198" s="50"/>
     </row>
     <row r="199" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="48"/>
-      <c r="B199" s="72"/>
+      <c r="A199" s="82"/>
+      <c r="B199" s="69"/>
       <c r="C199" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E199" s="48"/>
-      <c r="F199" s="48"/>
-      <c r="G199" s="117"/>
-      <c r="H199" s="117"/>
+      <c r="E199" s="82"/>
+      <c r="F199" s="82"/>
+      <c r="G199" s="50"/>
+      <c r="H199" s="50"/>
     </row>
     <row r="200" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A200" s="48"/>
-      <c r="B200" s="72"/>
+      <c r="A200" s="82"/>
+      <c r="B200" s="69"/>
       <c r="C200" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E200" s="48"/>
-      <c r="F200" s="48"/>
-      <c r="G200" s="117"/>
-      <c r="H200" s="117"/>
+      <c r="E200" s="82"/>
+      <c r="F200" s="82"/>
+      <c r="G200" s="50"/>
+      <c r="H200" s="50"/>
     </row>
     <row r="201" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A201" s="48"/>
-      <c r="B201" s="72"/>
+      <c r="A201" s="82"/>
+      <c r="B201" s="69"/>
       <c r="C201" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D201" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E201" s="48"/>
-      <c r="F201" s="48"/>
-      <c r="G201" s="117"/>
-      <c r="H201" s="117"/>
+      <c r="E201" s="82"/>
+      <c r="F201" s="82"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="50"/>
     </row>
     <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
-      <c r="B202" s="72"/>
+      <c r="A202" s="82"/>
+      <c r="B202" s="69"/>
       <c r="C202" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D202" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E202" s="48"/>
-      <c r="F202" s="48"/>
-      <c r="G202" s="117"/>
-      <c r="H202" s="117"/>
+      <c r="E202" s="82"/>
+      <c r="F202" s="82"/>
+      <c r="G202" s="50"/>
+      <c r="H202" s="50"/>
     </row>
     <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="48"/>
-      <c r="B203" s="72"/>
+      <c r="A203" s="82"/>
+      <c r="B203" s="69"/>
       <c r="C203" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E203" s="48"/>
-      <c r="F203" s="48"/>
-      <c r="G203" s="117"/>
-      <c r="H203" s="117"/>
+      <c r="E203" s="82"/>
+      <c r="F203" s="82"/>
+      <c r="G203" s="50"/>
+      <c r="H203" s="50"/>
     </row>
     <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="48"/>
-      <c r="B204" s="72"/>
+      <c r="A204" s="82"/>
+      <c r="B204" s="69"/>
       <c r="C204" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E204" s="48"/>
-      <c r="F204" s="48"/>
-      <c r="G204" s="117"/>
-      <c r="H204" s="117"/>
+      <c r="E204" s="82"/>
+      <c r="F204" s="82"/>
+      <c r="G204" s="50"/>
+      <c r="H204" s="50"/>
     </row>
     <row r="205" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A205" s="48"/>
-      <c r="B205" s="73"/>
+      <c r="A205" s="82"/>
+      <c r="B205" s="70"/>
       <c r="C205" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E205" s="48"/>
-      <c r="F205" s="48"/>
-      <c r="G205" s="118"/>
-      <c r="H205" s="118"/>
+      <c r="E205" s="82"/>
+      <c r="F205" s="82"/>
+      <c r="G205" s="51"/>
+      <c r="H205" s="51"/>
     </row>
     <row r="206" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A206" s="49" t="s">
+      <c r="A206" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="B206" s="74" t="s">
+      <c r="B206" s="115" t="s">
         <v>187</v>
       </c>
       <c r="C206" s="3" t="s">
@@ -6965,132 +6999,132 @@
       <c r="D206" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E206" s="48" t="s">
+      <c r="E206" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F206" s="48" t="s">
+      <c r="F206" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G206" s="116"/>
-      <c r="H206" s="116"/>
+      <c r="G206" s="49"/>
+      <c r="H206" s="49"/>
     </row>
     <row r="207" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A207" s="50"/>
-      <c r="B207" s="75"/>
+      <c r="A207" s="66"/>
+      <c r="B207" s="116"/>
       <c r="C207" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E207" s="48"/>
-      <c r="F207" s="48"/>
-      <c r="G207" s="117"/>
-      <c r="H207" s="117"/>
+      <c r="E207" s="82"/>
+      <c r="F207" s="82"/>
+      <c r="G207" s="50"/>
+      <c r="H207" s="50"/>
     </row>
     <row r="208" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A208" s="50"/>
-      <c r="B208" s="75"/>
+      <c r="A208" s="66"/>
+      <c r="B208" s="116"/>
       <c r="C208" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E208" s="48"/>
-      <c r="F208" s="48"/>
-      <c r="G208" s="117"/>
-      <c r="H208" s="117"/>
+      <c r="E208" s="82"/>
+      <c r="F208" s="82"/>
+      <c r="G208" s="50"/>
+      <c r="H208" s="50"/>
     </row>
     <row r="209" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A209" s="50"/>
-      <c r="B209" s="75"/>
+      <c r="A209" s="66"/>
+      <c r="B209" s="116"/>
       <c r="C209" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E209" s="48"/>
-      <c r="F209" s="48"/>
-      <c r="G209" s="117"/>
-      <c r="H209" s="117"/>
+      <c r="E209" s="82"/>
+      <c r="F209" s="82"/>
+      <c r="G209" s="50"/>
+      <c r="H209" s="50"/>
     </row>
     <row r="210" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A210" s="50"/>
-      <c r="B210" s="75"/>
+      <c r="A210" s="66"/>
+      <c r="B210" s="116"/>
       <c r="C210" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D210" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E210" s="48"/>
-      <c r="F210" s="48"/>
-      <c r="G210" s="117"/>
-      <c r="H210" s="117"/>
+      <c r="E210" s="82"/>
+      <c r="F210" s="82"/>
+      <c r="G210" s="50"/>
+      <c r="H210" s="50"/>
     </row>
     <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="50"/>
-      <c r="B211" s="75"/>
+      <c r="A211" s="66"/>
+      <c r="B211" s="116"/>
       <c r="C211" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D211" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E211" s="48"/>
-      <c r="F211" s="48"/>
-      <c r="G211" s="117"/>
-      <c r="H211" s="117"/>
+      <c r="E211" s="82"/>
+      <c r="F211" s="82"/>
+      <c r="G211" s="50"/>
+      <c r="H211" s="50"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="50"/>
-      <c r="B212" s="75"/>
+      <c r="A212" s="66"/>
+      <c r="B212" s="116"/>
       <c r="C212" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E212" s="48"/>
-      <c r="F212" s="48"/>
-      <c r="G212" s="117"/>
-      <c r="H212" s="117"/>
+      <c r="E212" s="82"/>
+      <c r="F212" s="82"/>
+      <c r="G212" s="50"/>
+      <c r="H212" s="50"/>
     </row>
     <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="50"/>
-      <c r="B213" s="75"/>
+      <c r="A213" s="66"/>
+      <c r="B213" s="116"/>
       <c r="C213" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E213" s="48"/>
-      <c r="F213" s="48"/>
-      <c r="G213" s="117"/>
-      <c r="H213" s="117"/>
+      <c r="E213" s="82"/>
+      <c r="F213" s="82"/>
+      <c r="G213" s="50"/>
+      <c r="H213" s="50"/>
     </row>
     <row r="214" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A214" s="51"/>
-      <c r="B214" s="76"/>
+      <c r="A214" s="67"/>
+      <c r="B214" s="117"/>
       <c r="C214" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D214" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E214" s="48"/>
-      <c r="F214" s="48"/>
-      <c r="G214" s="118"/>
-      <c r="H214" s="118"/>
+      <c r="E214" s="82"/>
+      <c r="F214" s="82"/>
+      <c r="G214" s="51"/>
+      <c r="H214" s="51"/>
     </row>
     <row r="215" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="49" t="s">
+      <c r="A215" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="B215" s="77" t="s">
+      <c r="B215" s="87" t="s">
         <v>197</v>
       </c>
       <c r="C215" s="3" t="s">
@@ -7099,132 +7133,132 @@
       <c r="D215" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E215" s="48" t="s">
+      <c r="E215" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F215" s="48" t="s">
+      <c r="F215" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G215" s="116"/>
-      <c r="H215" s="116"/>
+      <c r="G215" s="49"/>
+      <c r="H215" s="49"/>
     </row>
     <row r="216" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A216" s="50"/>
-      <c r="B216" s="78"/>
+      <c r="A216" s="66"/>
+      <c r="B216" s="88"/>
       <c r="C216" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E216" s="48"/>
-      <c r="F216" s="48"/>
-      <c r="G216" s="117"/>
-      <c r="H216" s="117"/>
+      <c r="E216" s="82"/>
+      <c r="F216" s="82"/>
+      <c r="G216" s="50"/>
+      <c r="H216" s="50"/>
     </row>
     <row r="217" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A217" s="50"/>
-      <c r="B217" s="78"/>
+      <c r="A217" s="66"/>
+      <c r="B217" s="88"/>
       <c r="C217" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E217" s="48"/>
-      <c r="F217" s="48"/>
-      <c r="G217" s="117"/>
-      <c r="H217" s="117"/>
+      <c r="E217" s="82"/>
+      <c r="F217" s="82"/>
+      <c r="G217" s="50"/>
+      <c r="H217" s="50"/>
     </row>
     <row r="218" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A218" s="50"/>
-      <c r="B218" s="78"/>
+      <c r="A218" s="66"/>
+      <c r="B218" s="88"/>
       <c r="C218" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E218" s="48"/>
-      <c r="F218" s="48"/>
-      <c r="G218" s="117"/>
-      <c r="H218" s="117"/>
+      <c r="E218" s="82"/>
+      <c r="F218" s="82"/>
+      <c r="G218" s="50"/>
+      <c r="H218" s="50"/>
     </row>
     <row r="219" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A219" s="50"/>
-      <c r="B219" s="78"/>
+      <c r="A219" s="66"/>
+      <c r="B219" s="88"/>
       <c r="C219" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D219" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E219" s="48"/>
-      <c r="F219" s="48"/>
-      <c r="G219" s="117"/>
-      <c r="H219" s="117"/>
+      <c r="E219" s="82"/>
+      <c r="F219" s="82"/>
+      <c r="G219" s="50"/>
+      <c r="H219" s="50"/>
     </row>
     <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="50"/>
-      <c r="B220" s="78"/>
+      <c r="A220" s="66"/>
+      <c r="B220" s="88"/>
       <c r="C220" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E220" s="48"/>
-      <c r="F220" s="48"/>
-      <c r="G220" s="117"/>
-      <c r="H220" s="117"/>
+      <c r="E220" s="82"/>
+      <c r="F220" s="82"/>
+      <c r="G220" s="50"/>
+      <c r="H220" s="50"/>
     </row>
     <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A221" s="50"/>
-      <c r="B221" s="78"/>
+      <c r="A221" s="66"/>
+      <c r="B221" s="88"/>
       <c r="C221" s="4" t="s">
         <v>191</v>
       </c>
       <c r="D221" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E221" s="48"/>
-      <c r="F221" s="48"/>
-      <c r="G221" s="117"/>
-      <c r="H221" s="117"/>
+      <c r="E221" s="82"/>
+      <c r="F221" s="82"/>
+      <c r="G221" s="50"/>
+      <c r="H221" s="50"/>
     </row>
     <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="50"/>
-      <c r="B222" s="78"/>
+      <c r="A222" s="66"/>
+      <c r="B222" s="88"/>
       <c r="C222" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E222" s="48"/>
-      <c r="F222" s="48"/>
-      <c r="G222" s="117"/>
-      <c r="H222" s="117"/>
+      <c r="E222" s="82"/>
+      <c r="F222" s="82"/>
+      <c r="G222" s="50"/>
+      <c r="H222" s="50"/>
     </row>
     <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="51"/>
-      <c r="B223" s="79"/>
+      <c r="A223" s="67"/>
+      <c r="B223" s="89"/>
       <c r="C223" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E223" s="48"/>
-      <c r="F223" s="48"/>
-      <c r="G223" s="118"/>
-      <c r="H223" s="118"/>
+      <c r="E223" s="82"/>
+      <c r="F223" s="82"/>
+      <c r="G223" s="51"/>
+      <c r="H223" s="51"/>
     </row>
     <row r="224" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="49" t="s">
+      <c r="A224" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="B224" s="65" t="s">
+      <c r="B224" s="109" t="s">
         <v>198</v>
       </c>
       <c r="C224" s="3" t="s">
@@ -7233,132 +7267,132 @@
       <c r="D224" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E224" s="48" t="s">
+      <c r="E224" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F224" s="48" t="s">
+      <c r="F224" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G224" s="116"/>
-      <c r="H224" s="116"/>
+      <c r="G224" s="49"/>
+      <c r="H224" s="49"/>
     </row>
     <row r="225" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A225" s="50"/>
-      <c r="B225" s="66"/>
+      <c r="A225" s="66"/>
+      <c r="B225" s="110"/>
       <c r="C225" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E225" s="48"/>
-      <c r="F225" s="48"/>
-      <c r="G225" s="117"/>
-      <c r="H225" s="117"/>
+      <c r="E225" s="82"/>
+      <c r="F225" s="82"/>
+      <c r="G225" s="50"/>
+      <c r="H225" s="50"/>
     </row>
     <row r="226" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A226" s="50"/>
-      <c r="B226" s="66"/>
+      <c r="A226" s="66"/>
+      <c r="B226" s="110"/>
       <c r="C226" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E226" s="48"/>
-      <c r="F226" s="48"/>
-      <c r="G226" s="117"/>
-      <c r="H226" s="117"/>
+      <c r="E226" s="82"/>
+      <c r="F226" s="82"/>
+      <c r="G226" s="50"/>
+      <c r="H226" s="50"/>
     </row>
     <row r="227" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A227" s="50"/>
-      <c r="B227" s="66"/>
+      <c r="A227" s="66"/>
+      <c r="B227" s="110"/>
       <c r="C227" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D227" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E227" s="48"/>
-      <c r="F227" s="48"/>
-      <c r="G227" s="117"/>
-      <c r="H227" s="117"/>
+      <c r="E227" s="82"/>
+      <c r="F227" s="82"/>
+      <c r="G227" s="50"/>
+      <c r="H227" s="50"/>
     </row>
     <row r="228" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A228" s="50"/>
-      <c r="B228" s="66"/>
+      <c r="A228" s="66"/>
+      <c r="B228" s="110"/>
       <c r="C228" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D228" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E228" s="48"/>
-      <c r="F228" s="48"/>
-      <c r="G228" s="117"/>
-      <c r="H228" s="117"/>
+      <c r="E228" s="82"/>
+      <c r="F228" s="82"/>
+      <c r="G228" s="50"/>
+      <c r="H228" s="50"/>
     </row>
     <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="50"/>
-      <c r="B229" s="66"/>
+      <c r="A229" s="66"/>
+      <c r="B229" s="110"/>
       <c r="C229" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E229" s="48"/>
-      <c r="F229" s="48"/>
-      <c r="G229" s="117"/>
-      <c r="H229" s="117"/>
+      <c r="E229" s="82"/>
+      <c r="F229" s="82"/>
+      <c r="G229" s="50"/>
+      <c r="H229" s="50"/>
     </row>
     <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="50"/>
-      <c r="B230" s="66"/>
+      <c r="A230" s="66"/>
+      <c r="B230" s="110"/>
       <c r="C230" s="4" t="s">
         <v>200</v>
       </c>
       <c r="D230" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E230" s="48"/>
-      <c r="F230" s="48"/>
-      <c r="G230" s="117"/>
-      <c r="H230" s="117"/>
+      <c r="E230" s="82"/>
+      <c r="F230" s="82"/>
+      <c r="G230" s="50"/>
+      <c r="H230" s="50"/>
     </row>
     <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="50"/>
-      <c r="B231" s="66"/>
+      <c r="A231" s="66"/>
+      <c r="B231" s="110"/>
       <c r="C231" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E231" s="48"/>
-      <c r="F231" s="48"/>
-      <c r="G231" s="117"/>
-      <c r="H231" s="117"/>
+      <c r="E231" s="82"/>
+      <c r="F231" s="82"/>
+      <c r="G231" s="50"/>
+      <c r="H231" s="50"/>
     </row>
     <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="51"/>
-      <c r="B232" s="66"/>
+      <c r="A232" s="67"/>
+      <c r="B232" s="110"/>
       <c r="C232" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E232" s="48"/>
-      <c r="F232" s="48"/>
-      <c r="G232" s="118"/>
-      <c r="H232" s="118"/>
+      <c r="E232" s="82"/>
+      <c r="F232" s="82"/>
+      <c r="G232" s="51"/>
+      <c r="H232" s="51"/>
     </row>
     <row r="233" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="48" t="s">
+      <c r="A233" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="B233" s="67" t="s">
+      <c r="B233" s="111" t="s">
         <v>202</v>
       </c>
       <c r="C233" s="3" t="s">
@@ -7367,132 +7401,132 @@
       <c r="D233" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E233" s="48" t="s">
+      <c r="E233" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F233" s="48" t="s">
+      <c r="F233" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G233" s="116"/>
-      <c r="H233" s="116"/>
+      <c r="G233" s="49"/>
+      <c r="H233" s="49"/>
     </row>
     <row r="234" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A234" s="48"/>
-      <c r="B234" s="67"/>
+      <c r="A234" s="82"/>
+      <c r="B234" s="111"/>
       <c r="C234" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E234" s="48"/>
-      <c r="F234" s="48"/>
-      <c r="G234" s="117"/>
-      <c r="H234" s="117"/>
+      <c r="E234" s="82"/>
+      <c r="F234" s="82"/>
+      <c r="G234" s="50"/>
+      <c r="H234" s="50"/>
     </row>
     <row r="235" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A235" s="48"/>
-      <c r="B235" s="67"/>
+      <c r="A235" s="82"/>
+      <c r="B235" s="111"/>
       <c r="C235" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E235" s="48"/>
-      <c r="F235" s="48"/>
-      <c r="G235" s="117"/>
-      <c r="H235" s="117"/>
+      <c r="E235" s="82"/>
+      <c r="F235" s="82"/>
+      <c r="G235" s="50"/>
+      <c r="H235" s="50"/>
     </row>
     <row r="236" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A236" s="48"/>
-      <c r="B236" s="67"/>
+      <c r="A236" s="82"/>
+      <c r="B236" s="111"/>
       <c r="C236" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D236" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E236" s="48"/>
-      <c r="F236" s="48"/>
-      <c r="G236" s="117"/>
-      <c r="H236" s="117"/>
+      <c r="E236" s="82"/>
+      <c r="F236" s="82"/>
+      <c r="G236" s="50"/>
+      <c r="H236" s="50"/>
     </row>
     <row r="237" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A237" s="48"/>
-      <c r="B237" s="67"/>
+      <c r="A237" s="82"/>
+      <c r="B237" s="111"/>
       <c r="C237" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D237" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E237" s="48"/>
-      <c r="F237" s="48"/>
-      <c r="G237" s="117"/>
-      <c r="H237" s="117"/>
+      <c r="E237" s="82"/>
+      <c r="F237" s="82"/>
+      <c r="G237" s="50"/>
+      <c r="H237" s="50"/>
     </row>
     <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="48"/>
-      <c r="B238" s="67"/>
+      <c r="A238" s="82"/>
+      <c r="B238" s="111"/>
       <c r="C238" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E238" s="48"/>
-      <c r="F238" s="48"/>
-      <c r="G238" s="117"/>
-      <c r="H238" s="117"/>
+      <c r="E238" s="82"/>
+      <c r="F238" s="82"/>
+      <c r="G238" s="50"/>
+      <c r="H238" s="50"/>
     </row>
     <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A239" s="48"/>
-      <c r="B239" s="67"/>
+      <c r="A239" s="82"/>
+      <c r="B239" s="111"/>
       <c r="C239" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E239" s="48"/>
-      <c r="F239" s="48"/>
-      <c r="G239" s="117"/>
-      <c r="H239" s="117"/>
+      <c r="E239" s="82"/>
+      <c r="F239" s="82"/>
+      <c r="G239" s="50"/>
+      <c r="H239" s="50"/>
     </row>
     <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240" s="48"/>
-      <c r="B240" s="67"/>
+      <c r="A240" s="82"/>
+      <c r="B240" s="111"/>
       <c r="C240" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E240" s="48"/>
-      <c r="F240" s="48"/>
-      <c r="G240" s="117"/>
-      <c r="H240" s="117"/>
+      <c r="E240" s="82"/>
+      <c r="F240" s="82"/>
+      <c r="G240" s="50"/>
+      <c r="H240" s="50"/>
     </row>
     <row r="241" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A241" s="48"/>
-      <c r="B241" s="67"/>
+      <c r="A241" s="82"/>
+      <c r="B241" s="111"/>
       <c r="C241" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E241" s="48"/>
-      <c r="F241" s="48"/>
-      <c r="G241" s="118"/>
-      <c r="H241" s="118"/>
+      <c r="E241" s="82"/>
+      <c r="F241" s="82"/>
+      <c r="G241" s="51"/>
+      <c r="H241" s="51"/>
     </row>
     <row r="242" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="49" t="s">
+      <c r="A242" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="B242" s="68" t="s">
+      <c r="B242" s="112" t="s">
         <v>207</v>
       </c>
       <c r="C242" s="3" t="s">
@@ -7501,132 +7535,132 @@
       <c r="D242" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E242" s="48" t="s">
+      <c r="E242" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F242" s="48" t="s">
+      <c r="F242" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G242" s="116"/>
-      <c r="H242" s="116"/>
+      <c r="G242" s="49"/>
+      <c r="H242" s="49"/>
     </row>
     <row r="243" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A243" s="50"/>
-      <c r="B243" s="69"/>
+      <c r="A243" s="66"/>
+      <c r="B243" s="113"/>
       <c r="C243" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D243" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E243" s="48"/>
-      <c r="F243" s="48"/>
-      <c r="G243" s="117"/>
-      <c r="H243" s="117"/>
+      <c r="E243" s="82"/>
+      <c r="F243" s="82"/>
+      <c r="G243" s="50"/>
+      <c r="H243" s="50"/>
     </row>
     <row r="244" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A244" s="50"/>
-      <c r="B244" s="69"/>
+      <c r="A244" s="66"/>
+      <c r="B244" s="113"/>
       <c r="C244" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D244" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E244" s="48"/>
-      <c r="F244" s="48"/>
-      <c r="G244" s="117"/>
-      <c r="H244" s="117"/>
+      <c r="E244" s="82"/>
+      <c r="F244" s="82"/>
+      <c r="G244" s="50"/>
+      <c r="H244" s="50"/>
     </row>
     <row r="245" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A245" s="50"/>
-      <c r="B245" s="69"/>
+      <c r="A245" s="66"/>
+      <c r="B245" s="113"/>
       <c r="C245" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E245" s="48"/>
-      <c r="F245" s="48"/>
-      <c r="G245" s="117"/>
-      <c r="H245" s="117"/>
+      <c r="E245" s="82"/>
+      <c r="F245" s="82"/>
+      <c r="G245" s="50"/>
+      <c r="H245" s="50"/>
     </row>
     <row r="246" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A246" s="50"/>
-      <c r="B246" s="69"/>
+      <c r="A246" s="66"/>
+      <c r="B246" s="113"/>
       <c r="C246" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D246" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E246" s="48"/>
-      <c r="F246" s="48"/>
-      <c r="G246" s="117"/>
-      <c r="H246" s="117"/>
+      <c r="E246" s="82"/>
+      <c r="F246" s="82"/>
+      <c r="G246" s="50"/>
+      <c r="H246" s="50"/>
     </row>
     <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="50"/>
-      <c r="B247" s="69"/>
+      <c r="A247" s="66"/>
+      <c r="B247" s="113"/>
       <c r="C247" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E247" s="48"/>
-      <c r="F247" s="48"/>
-      <c r="G247" s="117"/>
-      <c r="H247" s="117"/>
+      <c r="E247" s="82"/>
+      <c r="F247" s="82"/>
+      <c r="G247" s="50"/>
+      <c r="H247" s="50"/>
     </row>
     <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="50"/>
-      <c r="B248" s="69"/>
+      <c r="A248" s="66"/>
+      <c r="B248" s="113"/>
       <c r="C248" s="4" t="s">
         <v>209</v>
       </c>
       <c r="D248" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E248" s="48"/>
-      <c r="F248" s="48"/>
-      <c r="G248" s="117"/>
-      <c r="H248" s="117"/>
+      <c r="E248" s="82"/>
+      <c r="F248" s="82"/>
+      <c r="G248" s="50"/>
+      <c r="H248" s="50"/>
     </row>
     <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="50"/>
-      <c r="B249" s="69"/>
+      <c r="A249" s="66"/>
+      <c r="B249" s="113"/>
       <c r="C249" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E249" s="48"/>
-      <c r="F249" s="48"/>
-      <c r="G249" s="117"/>
-      <c r="H249" s="117"/>
+      <c r="E249" s="82"/>
+      <c r="F249" s="82"/>
+      <c r="G249" s="50"/>
+      <c r="H249" s="50"/>
     </row>
     <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="51"/>
-      <c r="B250" s="70"/>
+      <c r="A250" s="67"/>
+      <c r="B250" s="114"/>
       <c r="C250" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E250" s="48"/>
-      <c r="F250" s="48"/>
-      <c r="G250" s="118"/>
-      <c r="H250" s="118"/>
+      <c r="E250" s="82"/>
+      <c r="F250" s="82"/>
+      <c r="G250" s="51"/>
+      <c r="H250" s="51"/>
     </row>
     <row r="251" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="48" t="s">
+      <c r="A251" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="B251" s="62" t="s">
+      <c r="B251" s="120" t="s">
         <v>214</v>
       </c>
       <c r="C251" s="3" t="s">
@@ -7635,132 +7669,132 @@
       <c r="D251" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E251" s="48" t="s">
+      <c r="E251" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F251" s="48" t="s">
+      <c r="F251" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G251" s="116"/>
-      <c r="H251" s="116"/>
+      <c r="G251" s="49"/>
+      <c r="H251" s="49"/>
     </row>
     <row r="252" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A252" s="48"/>
-      <c r="B252" s="62"/>
+      <c r="A252" s="82"/>
+      <c r="B252" s="120"/>
       <c r="C252" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E252" s="48"/>
-      <c r="F252" s="48"/>
-      <c r="G252" s="117"/>
-      <c r="H252" s="117"/>
+      <c r="E252" s="82"/>
+      <c r="F252" s="82"/>
+      <c r="G252" s="50"/>
+      <c r="H252" s="50"/>
     </row>
     <row r="253" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A253" s="48"/>
-      <c r="B253" s="62"/>
+      <c r="A253" s="82"/>
+      <c r="B253" s="120"/>
       <c r="C253" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E253" s="48"/>
-      <c r="F253" s="48"/>
-      <c r="G253" s="117"/>
-      <c r="H253" s="117"/>
+      <c r="E253" s="82"/>
+      <c r="F253" s="82"/>
+      <c r="G253" s="50"/>
+      <c r="H253" s="50"/>
     </row>
     <row r="254" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A254" s="48"/>
-      <c r="B254" s="62"/>
+      <c r="A254" s="82"/>
+      <c r="B254" s="120"/>
       <c r="C254" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D254" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E254" s="48"/>
-      <c r="F254" s="48"/>
-      <c r="G254" s="117"/>
-      <c r="H254" s="117"/>
+      <c r="E254" s="82"/>
+      <c r="F254" s="82"/>
+      <c r="G254" s="50"/>
+      <c r="H254" s="50"/>
     </row>
     <row r="255" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A255" s="48"/>
-      <c r="B255" s="62"/>
+      <c r="A255" s="82"/>
+      <c r="B255" s="120"/>
       <c r="C255" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D255" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E255" s="48"/>
-      <c r="F255" s="48"/>
-      <c r="G255" s="117"/>
-      <c r="H255" s="117"/>
+      <c r="E255" s="82"/>
+      <c r="F255" s="82"/>
+      <c r="G255" s="50"/>
+      <c r="H255" s="50"/>
     </row>
     <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="48"/>
-      <c r="B256" s="62"/>
+      <c r="A256" s="82"/>
+      <c r="B256" s="120"/>
       <c r="C256" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E256" s="48"/>
-      <c r="F256" s="48"/>
-      <c r="G256" s="117"/>
-      <c r="H256" s="117"/>
+      <c r="E256" s="82"/>
+      <c r="F256" s="82"/>
+      <c r="G256" s="50"/>
+      <c r="H256" s="50"/>
     </row>
     <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="48"/>
-      <c r="B257" s="62"/>
+      <c r="A257" s="82"/>
+      <c r="B257" s="120"/>
       <c r="C257" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E257" s="48"/>
-      <c r="F257" s="48"/>
-      <c r="G257" s="117"/>
-      <c r="H257" s="117"/>
+      <c r="E257" s="82"/>
+      <c r="F257" s="82"/>
+      <c r="G257" s="50"/>
+      <c r="H257" s="50"/>
     </row>
     <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="48"/>
-      <c r="B258" s="62"/>
+      <c r="A258" s="82"/>
+      <c r="B258" s="120"/>
       <c r="C258" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E258" s="48"/>
-      <c r="F258" s="48"/>
-      <c r="G258" s="117"/>
-      <c r="H258" s="117"/>
+      <c r="E258" s="82"/>
+      <c r="F258" s="82"/>
+      <c r="G258" s="50"/>
+      <c r="H258" s="50"/>
     </row>
     <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="48"/>
-      <c r="B259" s="62"/>
+      <c r="A259" s="82"/>
+      <c r="B259" s="120"/>
       <c r="C259" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E259" s="48"/>
-      <c r="F259" s="48"/>
-      <c r="G259" s="118"/>
-      <c r="H259" s="118"/>
+      <c r="E259" s="82"/>
+      <c r="F259" s="82"/>
+      <c r="G259" s="51"/>
+      <c r="H259" s="51"/>
     </row>
     <row r="260" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="48" t="s">
+      <c r="A260" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="B260" s="63" t="s">
+      <c r="B260" s="121" t="s">
         <v>214</v>
       </c>
       <c r="C260" s="3" t="s">
@@ -7769,132 +7803,132 @@
       <c r="D260" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E260" s="48" t="s">
+      <c r="E260" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F260" s="48" t="s">
+      <c r="F260" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G260" s="116"/>
-      <c r="H260" s="116"/>
+      <c r="G260" s="49"/>
+      <c r="H260" s="49"/>
     </row>
     <row r="261" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A261" s="48"/>
-      <c r="B261" s="63"/>
+      <c r="A261" s="82"/>
+      <c r="B261" s="121"/>
       <c r="C261" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E261" s="48"/>
-      <c r="F261" s="48"/>
-      <c r="G261" s="117"/>
-      <c r="H261" s="117"/>
+      <c r="E261" s="82"/>
+      <c r="F261" s="82"/>
+      <c r="G261" s="50"/>
+      <c r="H261" s="50"/>
     </row>
     <row r="262" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A262" s="48"/>
-      <c r="B262" s="63"/>
+      <c r="A262" s="82"/>
+      <c r="B262" s="121"/>
       <c r="C262" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D262" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E262" s="48"/>
-      <c r="F262" s="48"/>
-      <c r="G262" s="117"/>
-      <c r="H262" s="117"/>
+      <c r="E262" s="82"/>
+      <c r="F262" s="82"/>
+      <c r="G262" s="50"/>
+      <c r="H262" s="50"/>
     </row>
     <row r="263" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A263" s="48"/>
-      <c r="B263" s="63"/>
+      <c r="A263" s="82"/>
+      <c r="B263" s="121"/>
       <c r="C263" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E263" s="48"/>
-      <c r="F263" s="48"/>
-      <c r="G263" s="117"/>
-      <c r="H263" s="117"/>
+      <c r="E263" s="82"/>
+      <c r="F263" s="82"/>
+      <c r="G263" s="50"/>
+      <c r="H263" s="50"/>
     </row>
     <row r="264" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A264" s="48"/>
-      <c r="B264" s="63"/>
+      <c r="A264" s="82"/>
+      <c r="B264" s="121"/>
       <c r="C264" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D264" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E264" s="48"/>
-      <c r="F264" s="48"/>
-      <c r="G264" s="117"/>
-      <c r="H264" s="117"/>
+      <c r="E264" s="82"/>
+      <c r="F264" s="82"/>
+      <c r="G264" s="50"/>
+      <c r="H264" s="50"/>
     </row>
     <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="48"/>
-      <c r="B265" s="63"/>
+      <c r="A265" s="82"/>
+      <c r="B265" s="121"/>
       <c r="C265" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E265" s="48"/>
-      <c r="F265" s="48"/>
-      <c r="G265" s="117"/>
-      <c r="H265" s="117"/>
+      <c r="E265" s="82"/>
+      <c r="F265" s="82"/>
+      <c r="G265" s="50"/>
+      <c r="H265" s="50"/>
     </row>
     <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="48"/>
-      <c r="B266" s="63"/>
+      <c r="A266" s="82"/>
+      <c r="B266" s="121"/>
       <c r="C266" s="4" t="s">
         <v>216</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E266" s="48"/>
-      <c r="F266" s="48"/>
-      <c r="G266" s="117"/>
-      <c r="H266" s="117"/>
+      <c r="E266" s="82"/>
+      <c r="F266" s="82"/>
+      <c r="G266" s="50"/>
+      <c r="H266" s="50"/>
     </row>
     <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="48"/>
-      <c r="B267" s="63"/>
+      <c r="A267" s="82"/>
+      <c r="B267" s="121"/>
       <c r="C267" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E267" s="48"/>
-      <c r="F267" s="48"/>
-      <c r="G267" s="117"/>
-      <c r="H267" s="117"/>
+      <c r="E267" s="82"/>
+      <c r="F267" s="82"/>
+      <c r="G267" s="50"/>
+      <c r="H267" s="50"/>
     </row>
     <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="48"/>
-      <c r="B268" s="63"/>
+      <c r="A268" s="82"/>
+      <c r="B268" s="121"/>
       <c r="C268" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E268" s="48"/>
-      <c r="F268" s="48"/>
-      <c r="G268" s="118"/>
-      <c r="H268" s="118"/>
+      <c r="E268" s="82"/>
+      <c r="F268" s="82"/>
+      <c r="G268" s="51"/>
+      <c r="H268" s="51"/>
     </row>
     <row r="269" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="48" t="s">
+      <c r="A269" s="82" t="s">
         <v>218</v>
       </c>
-      <c r="B269" s="64" t="s">
+      <c r="B269" s="122" t="s">
         <v>217</v>
       </c>
       <c r="C269" s="3" t="s">
@@ -7903,132 +7937,132 @@
       <c r="D269" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E269" s="48" t="s">
+      <c r="E269" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F269" s="48" t="s">
+      <c r="F269" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G269" s="116"/>
-      <c r="H269" s="116"/>
+      <c r="G269" s="49"/>
+      <c r="H269" s="49"/>
     </row>
     <row r="270" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A270" s="48"/>
-      <c r="B270" s="64"/>
+      <c r="A270" s="82"/>
+      <c r="B270" s="122"/>
       <c r="C270" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E270" s="48"/>
-      <c r="F270" s="48"/>
-      <c r="G270" s="117"/>
-      <c r="H270" s="117"/>
+      <c r="E270" s="82"/>
+      <c r="F270" s="82"/>
+      <c r="G270" s="50"/>
+      <c r="H270" s="50"/>
     </row>
     <row r="271" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A271" s="48"/>
-      <c r="B271" s="64"/>
+      <c r="A271" s="82"/>
+      <c r="B271" s="122"/>
       <c r="C271" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E271" s="48"/>
-      <c r="F271" s="48"/>
-      <c r="G271" s="117"/>
-      <c r="H271" s="117"/>
+      <c r="E271" s="82"/>
+      <c r="F271" s="82"/>
+      <c r="G271" s="50"/>
+      <c r="H271" s="50"/>
     </row>
     <row r="272" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A272" s="48"/>
-      <c r="B272" s="64"/>
+      <c r="A272" s="82"/>
+      <c r="B272" s="122"/>
       <c r="C272" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E272" s="48"/>
-      <c r="F272" s="48"/>
-      <c r="G272" s="117"/>
-      <c r="H272" s="117"/>
+      <c r="E272" s="82"/>
+      <c r="F272" s="82"/>
+      <c r="G272" s="50"/>
+      <c r="H272" s="50"/>
     </row>
     <row r="273" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A273" s="48"/>
-      <c r="B273" s="64"/>
+      <c r="A273" s="82"/>
+      <c r="B273" s="122"/>
       <c r="C273" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D273" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E273" s="48"/>
-      <c r="F273" s="48"/>
-      <c r="G273" s="117"/>
-      <c r="H273" s="117"/>
+      <c r="E273" s="82"/>
+      <c r="F273" s="82"/>
+      <c r="G273" s="50"/>
+      <c r="H273" s="50"/>
     </row>
     <row r="274" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="48"/>
-      <c r="B274" s="64"/>
+      <c r="A274" s="82"/>
+      <c r="B274" s="122"/>
       <c r="C274" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E274" s="48"/>
-      <c r="F274" s="48"/>
-      <c r="G274" s="117"/>
-      <c r="H274" s="117"/>
+      <c r="E274" s="82"/>
+      <c r="F274" s="82"/>
+      <c r="G274" s="50"/>
+      <c r="H274" s="50"/>
     </row>
     <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="48"/>
-      <c r="B275" s="64"/>
+      <c r="A275" s="82"/>
+      <c r="B275" s="122"/>
       <c r="C275" s="4" t="s">
         <v>219</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E275" s="48"/>
-      <c r="F275" s="48"/>
-      <c r="G275" s="117"/>
-      <c r="H275" s="117"/>
+      <c r="E275" s="82"/>
+      <c r="F275" s="82"/>
+      <c r="G275" s="50"/>
+      <c r="H275" s="50"/>
     </row>
     <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="48"/>
-      <c r="B276" s="64"/>
+      <c r="A276" s="82"/>
+      <c r="B276" s="122"/>
       <c r="C276" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E276" s="48"/>
-      <c r="F276" s="48"/>
-      <c r="G276" s="117"/>
-      <c r="H276" s="117"/>
+      <c r="E276" s="82"/>
+      <c r="F276" s="82"/>
+      <c r="G276" s="50"/>
+      <c r="H276" s="50"/>
     </row>
     <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="48"/>
-      <c r="B277" s="64"/>
+      <c r="A277" s="82"/>
+      <c r="B277" s="122"/>
       <c r="C277" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E277" s="48"/>
-      <c r="F277" s="48"/>
-      <c r="G277" s="118"/>
-      <c r="H277" s="118"/>
+      <c r="E277" s="82"/>
+      <c r="F277" s="82"/>
+      <c r="G277" s="51"/>
+      <c r="H277" s="51"/>
     </row>
     <row r="278" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="48" t="s">
+      <c r="A278" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="B278" s="52" t="s">
+      <c r="B278" s="91" t="s">
         <v>230</v>
       </c>
       <c r="C278" s="3" t="s">
@@ -8037,132 +8071,132 @@
       <c r="D278" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E278" s="48" t="s">
+      <c r="E278" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F278" s="48" t="s">
+      <c r="F278" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G278" s="116"/>
-      <c r="H278" s="116"/>
+      <c r="G278" s="49"/>
+      <c r="H278" s="49"/>
     </row>
     <row r="279" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A279" s="48"/>
-      <c r="B279" s="52"/>
+      <c r="A279" s="82"/>
+      <c r="B279" s="91"/>
       <c r="C279" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E279" s="48"/>
-      <c r="F279" s="48"/>
-      <c r="G279" s="117"/>
-      <c r="H279" s="117"/>
+      <c r="E279" s="82"/>
+      <c r="F279" s="82"/>
+      <c r="G279" s="50"/>
+      <c r="H279" s="50"/>
     </row>
     <row r="280" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A280" s="48"/>
-      <c r="B280" s="52"/>
+      <c r="A280" s="82"/>
+      <c r="B280" s="91"/>
       <c r="C280" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E280" s="48"/>
-      <c r="F280" s="48"/>
-      <c r="G280" s="117"/>
-      <c r="H280" s="117"/>
+      <c r="E280" s="82"/>
+      <c r="F280" s="82"/>
+      <c r="G280" s="50"/>
+      <c r="H280" s="50"/>
     </row>
     <row r="281" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A281" s="48"/>
-      <c r="B281" s="52"/>
+      <c r="A281" s="82"/>
+      <c r="B281" s="91"/>
       <c r="C281" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E281" s="48"/>
-      <c r="F281" s="48"/>
-      <c r="G281" s="117"/>
-      <c r="H281" s="117"/>
+      <c r="E281" s="82"/>
+      <c r="F281" s="82"/>
+      <c r="G281" s="50"/>
+      <c r="H281" s="50"/>
     </row>
     <row r="282" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A282" s="48"/>
-      <c r="B282" s="52"/>
+      <c r="A282" s="82"/>
+      <c r="B282" s="91"/>
       <c r="C282" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D282" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E282" s="48"/>
-      <c r="F282" s="48"/>
-      <c r="G282" s="117"/>
-      <c r="H282" s="117"/>
+      <c r="E282" s="82"/>
+      <c r="F282" s="82"/>
+      <c r="G282" s="50"/>
+      <c r="H282" s="50"/>
     </row>
     <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="48"/>
-      <c r="B283" s="52"/>
+      <c r="A283" s="82"/>
+      <c r="B283" s="91"/>
       <c r="C283" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D283" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E283" s="48"/>
-      <c r="F283" s="48"/>
-      <c r="G283" s="117"/>
-      <c r="H283" s="117"/>
+      <c r="E283" s="82"/>
+      <c r="F283" s="82"/>
+      <c r="G283" s="50"/>
+      <c r="H283" s="50"/>
     </row>
     <row r="284" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="48"/>
-      <c r="B284" s="52"/>
+      <c r="A284" s="82"/>
+      <c r="B284" s="91"/>
       <c r="C284" s="5" t="s">
         <v>234</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E284" s="48"/>
-      <c r="F284" s="48"/>
-      <c r="G284" s="117"/>
-      <c r="H284" s="117"/>
+      <c r="E284" s="82"/>
+      <c r="F284" s="82"/>
+      <c r="G284" s="50"/>
+      <c r="H284" s="50"/>
     </row>
     <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="48"/>
-      <c r="B285" s="52"/>
+      <c r="A285" s="82"/>
+      <c r="B285" s="91"/>
       <c r="C285" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E285" s="48"/>
-      <c r="F285" s="48"/>
-      <c r="G285" s="117"/>
-      <c r="H285" s="117"/>
+      <c r="E285" s="82"/>
+      <c r="F285" s="82"/>
+      <c r="G285" s="50"/>
+      <c r="H285" s="50"/>
     </row>
     <row r="286" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A286" s="48"/>
-      <c r="B286" s="52"/>
+      <c r="A286" s="82"/>
+      <c r="B286" s="91"/>
       <c r="C286" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E286" s="48"/>
-      <c r="F286" s="48"/>
-      <c r="G286" s="118"/>
-      <c r="H286" s="118"/>
+      <c r="E286" s="82"/>
+      <c r="F286" s="82"/>
+      <c r="G286" s="51"/>
+      <c r="H286" s="51"/>
     </row>
     <row r="287" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="48" t="s">
+      <c r="A287" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="B287" s="60" t="s">
+      <c r="B287" s="118" t="s">
         <v>238</v>
       </c>
       <c r="C287" s="3" t="s">
@@ -8171,132 +8205,132 @@
       <c r="D287" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E287" s="48" t="s">
+      <c r="E287" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F287" s="48" t="s">
+      <c r="F287" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G287" s="116"/>
-      <c r="H287" s="116"/>
+      <c r="G287" s="49"/>
+      <c r="H287" s="49"/>
     </row>
     <row r="288" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A288" s="48"/>
-      <c r="B288" s="60"/>
+      <c r="A288" s="82"/>
+      <c r="B288" s="118"/>
       <c r="C288" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E288" s="48"/>
-      <c r="F288" s="48"/>
-      <c r="G288" s="117"/>
-      <c r="H288" s="117"/>
+      <c r="E288" s="82"/>
+      <c r="F288" s="82"/>
+      <c r="G288" s="50"/>
+      <c r="H288" s="50"/>
     </row>
     <row r="289" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A289" s="48"/>
-      <c r="B289" s="60"/>
+      <c r="A289" s="82"/>
+      <c r="B289" s="118"/>
       <c r="C289" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E289" s="48"/>
-      <c r="F289" s="48"/>
-      <c r="G289" s="117"/>
-      <c r="H289" s="117"/>
+      <c r="E289" s="82"/>
+      <c r="F289" s="82"/>
+      <c r="G289" s="50"/>
+      <c r="H289" s="50"/>
     </row>
     <row r="290" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A290" s="48"/>
-      <c r="B290" s="60"/>
+      <c r="A290" s="82"/>
+      <c r="B290" s="118"/>
       <c r="C290" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E290" s="48"/>
-      <c r="F290" s="48"/>
-      <c r="G290" s="117"/>
-      <c r="H290" s="117"/>
+      <c r="E290" s="82"/>
+      <c r="F290" s="82"/>
+      <c r="G290" s="50"/>
+      <c r="H290" s="50"/>
     </row>
     <row r="291" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A291" s="48"/>
-      <c r="B291" s="60"/>
+      <c r="A291" s="82"/>
+      <c r="B291" s="118"/>
       <c r="C291" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D291" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E291" s="48"/>
-      <c r="F291" s="48"/>
-      <c r="G291" s="117"/>
-      <c r="H291" s="117"/>
+      <c r="E291" s="82"/>
+      <c r="F291" s="82"/>
+      <c r="G291" s="50"/>
+      <c r="H291" s="50"/>
     </row>
     <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="48"/>
-      <c r="B292" s="60"/>
+      <c r="A292" s="82"/>
+      <c r="B292" s="118"/>
       <c r="C292" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E292" s="48"/>
-      <c r="F292" s="48"/>
-      <c r="G292" s="117"/>
-      <c r="H292" s="117"/>
+      <c r="E292" s="82"/>
+      <c r="F292" s="82"/>
+      <c r="G292" s="50"/>
+      <c r="H292" s="50"/>
     </row>
     <row r="293" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A293" s="48"/>
-      <c r="B293" s="60"/>
+      <c r="A293" s="82"/>
+      <c r="B293" s="118"/>
       <c r="C293" s="5" t="s">
         <v>239</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E293" s="48"/>
-      <c r="F293" s="48"/>
-      <c r="G293" s="117"/>
-      <c r="H293" s="117"/>
+      <c r="E293" s="82"/>
+      <c r="F293" s="82"/>
+      <c r="G293" s="50"/>
+      <c r="H293" s="50"/>
     </row>
     <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="48"/>
-      <c r="B294" s="60"/>
+      <c r="A294" s="82"/>
+      <c r="B294" s="118"/>
       <c r="C294" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E294" s="48"/>
-      <c r="F294" s="48"/>
-      <c r="G294" s="117"/>
-      <c r="H294" s="117"/>
+      <c r="E294" s="82"/>
+      <c r="F294" s="82"/>
+      <c r="G294" s="50"/>
+      <c r="H294" s="50"/>
     </row>
     <row r="295" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A295" s="48"/>
-      <c r="B295" s="60"/>
+      <c r="A295" s="82"/>
+      <c r="B295" s="118"/>
       <c r="C295" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E295" s="48"/>
-      <c r="F295" s="48"/>
-      <c r="G295" s="118"/>
-      <c r="H295" s="118"/>
+      <c r="E295" s="82"/>
+      <c r="F295" s="82"/>
+      <c r="G295" s="51"/>
+      <c r="H295" s="51"/>
     </row>
     <row r="296" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="48" t="s">
+      <c r="A296" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="B296" s="61" t="s">
+      <c r="B296" s="119" t="s">
         <v>241</v>
       </c>
       <c r="C296" s="3" t="s">
@@ -8305,132 +8339,132 @@
       <c r="D296" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E296" s="48" t="s">
+      <c r="E296" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F296" s="48" t="s">
+      <c r="F296" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G296" s="116"/>
-      <c r="H296" s="116"/>
+      <c r="G296" s="49"/>
+      <c r="H296" s="49"/>
     </row>
     <row r="297" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A297" s="48"/>
-      <c r="B297" s="61"/>
+      <c r="A297" s="82"/>
+      <c r="B297" s="119"/>
       <c r="C297" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E297" s="48"/>
-      <c r="F297" s="48"/>
-      <c r="G297" s="117"/>
-      <c r="H297" s="117"/>
+      <c r="E297" s="82"/>
+      <c r="F297" s="82"/>
+      <c r="G297" s="50"/>
+      <c r="H297" s="50"/>
     </row>
     <row r="298" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A298" s="48"/>
-      <c r="B298" s="61"/>
+      <c r="A298" s="82"/>
+      <c r="B298" s="119"/>
       <c r="C298" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E298" s="48"/>
-      <c r="F298" s="48"/>
-      <c r="G298" s="117"/>
-      <c r="H298" s="117"/>
+      <c r="E298" s="82"/>
+      <c r="F298" s="82"/>
+      <c r="G298" s="50"/>
+      <c r="H298" s="50"/>
     </row>
     <row r="299" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A299" s="48"/>
-      <c r="B299" s="61"/>
+      <c r="A299" s="82"/>
+      <c r="B299" s="119"/>
       <c r="C299" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E299" s="48"/>
-      <c r="F299" s="48"/>
-      <c r="G299" s="117"/>
-      <c r="H299" s="117"/>
+      <c r="E299" s="82"/>
+      <c r="F299" s="82"/>
+      <c r="G299" s="50"/>
+      <c r="H299" s="50"/>
     </row>
     <row r="300" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A300" s="48"/>
-      <c r="B300" s="61"/>
+      <c r="A300" s="82"/>
+      <c r="B300" s="119"/>
       <c r="C300" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D300" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E300" s="48"/>
-      <c r="F300" s="48"/>
-      <c r="G300" s="117"/>
-      <c r="H300" s="117"/>
+      <c r="E300" s="82"/>
+      <c r="F300" s="82"/>
+      <c r="G300" s="50"/>
+      <c r="H300" s="50"/>
     </row>
     <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="48"/>
-      <c r="B301" s="61"/>
+      <c r="A301" s="82"/>
+      <c r="B301" s="119"/>
       <c r="C301" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E301" s="48"/>
-      <c r="F301" s="48"/>
-      <c r="G301" s="117"/>
-      <c r="H301" s="117"/>
+      <c r="E301" s="82"/>
+      <c r="F301" s="82"/>
+      <c r="G301" s="50"/>
+      <c r="H301" s="50"/>
     </row>
     <row r="302" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="48"/>
-      <c r="B302" s="61"/>
+      <c r="A302" s="82"/>
+      <c r="B302" s="119"/>
       <c r="C302" s="5" t="s">
         <v>243</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E302" s="48"/>
-      <c r="F302" s="48"/>
-      <c r="G302" s="117"/>
-      <c r="H302" s="117"/>
+      <c r="E302" s="82"/>
+      <c r="F302" s="82"/>
+      <c r="G302" s="50"/>
+      <c r="H302" s="50"/>
     </row>
     <row r="303" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="48"/>
-      <c r="B303" s="61"/>
+      <c r="A303" s="82"/>
+      <c r="B303" s="119"/>
       <c r="C303" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E303" s="48"/>
-      <c r="F303" s="48"/>
-      <c r="G303" s="117"/>
-      <c r="H303" s="117"/>
+      <c r="E303" s="82"/>
+      <c r="F303" s="82"/>
+      <c r="G303" s="50"/>
+      <c r="H303" s="50"/>
     </row>
     <row r="304" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A304" s="48"/>
-      <c r="B304" s="61"/>
+      <c r="A304" s="82"/>
+      <c r="B304" s="119"/>
       <c r="C304" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E304" s="48"/>
-      <c r="F304" s="48"/>
-      <c r="G304" s="118"/>
-      <c r="H304" s="118"/>
+      <c r="E304" s="82"/>
+      <c r="F304" s="82"/>
+      <c r="G304" s="51"/>
+      <c r="H304" s="51"/>
     </row>
     <row r="305" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="48" t="s">
+      <c r="A305" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="B305" s="56" t="s">
+      <c r="B305" s="124" t="s">
         <v>245</v>
       </c>
       <c r="C305" s="3" t="s">
@@ -8439,132 +8473,132 @@
       <c r="D305" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E305" s="48" t="s">
+      <c r="E305" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F305" s="48" t="s">
+      <c r="F305" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G305" s="116"/>
-      <c r="H305" s="116"/>
+      <c r="G305" s="49"/>
+      <c r="H305" s="49"/>
     </row>
     <row r="306" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A306" s="48"/>
-      <c r="B306" s="56"/>
+      <c r="A306" s="82"/>
+      <c r="B306" s="124"/>
       <c r="C306" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E306" s="48"/>
-      <c r="F306" s="48"/>
-      <c r="G306" s="117"/>
-      <c r="H306" s="117"/>
+      <c r="E306" s="82"/>
+      <c r="F306" s="82"/>
+      <c r="G306" s="50"/>
+      <c r="H306" s="50"/>
     </row>
     <row r="307" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A307" s="48"/>
-      <c r="B307" s="56"/>
+      <c r="A307" s="82"/>
+      <c r="B307" s="124"/>
       <c r="C307" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E307" s="48"/>
-      <c r="F307" s="48"/>
-      <c r="G307" s="117"/>
-      <c r="H307" s="117"/>
+      <c r="E307" s="82"/>
+      <c r="F307" s="82"/>
+      <c r="G307" s="50"/>
+      <c r="H307" s="50"/>
     </row>
     <row r="308" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A308" s="48"/>
-      <c r="B308" s="56"/>
+      <c r="A308" s="82"/>
+      <c r="B308" s="124"/>
       <c r="C308" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E308" s="48"/>
-      <c r="F308" s="48"/>
-      <c r="G308" s="117"/>
-      <c r="H308" s="117"/>
+      <c r="E308" s="82"/>
+      <c r="F308" s="82"/>
+      <c r="G308" s="50"/>
+      <c r="H308" s="50"/>
     </row>
     <row r="309" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A309" s="48"/>
-      <c r="B309" s="56"/>
+      <c r="A309" s="82"/>
+      <c r="B309" s="124"/>
       <c r="C309" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D309" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E309" s="48"/>
-      <c r="F309" s="48"/>
-      <c r="G309" s="117"/>
-      <c r="H309" s="117"/>
+      <c r="E309" s="82"/>
+      <c r="F309" s="82"/>
+      <c r="G309" s="50"/>
+      <c r="H309" s="50"/>
     </row>
     <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A310" s="48"/>
-      <c r="B310" s="56"/>
+      <c r="A310" s="82"/>
+      <c r="B310" s="124"/>
       <c r="C310" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D310" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E310" s="48"/>
-      <c r="F310" s="48"/>
-      <c r="G310" s="117"/>
-      <c r="H310" s="117"/>
+      <c r="E310" s="82"/>
+      <c r="F310" s="82"/>
+      <c r="G310" s="50"/>
+      <c r="H310" s="50"/>
     </row>
     <row r="311" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="48"/>
-      <c r="B311" s="56"/>
+      <c r="A311" s="82"/>
+      <c r="B311" s="124"/>
       <c r="C311" s="5" t="s">
         <v>247</v>
       </c>
       <c r="D311" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E311" s="48"/>
-      <c r="F311" s="48"/>
-      <c r="G311" s="117"/>
-      <c r="H311" s="117"/>
+      <c r="E311" s="82"/>
+      <c r="F311" s="82"/>
+      <c r="G311" s="50"/>
+      <c r="H311" s="50"/>
     </row>
     <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="48"/>
-      <c r="B312" s="56"/>
+      <c r="A312" s="82"/>
+      <c r="B312" s="124"/>
       <c r="C312" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E312" s="48"/>
-      <c r="F312" s="48"/>
-      <c r="G312" s="117"/>
-      <c r="H312" s="117"/>
+      <c r="E312" s="82"/>
+      <c r="F312" s="82"/>
+      <c r="G312" s="50"/>
+      <c r="H312" s="50"/>
     </row>
     <row r="313" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="48"/>
-      <c r="B313" s="56"/>
+      <c r="A313" s="82"/>
+      <c r="B313" s="124"/>
       <c r="C313" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E313" s="48"/>
-      <c r="F313" s="48"/>
-      <c r="G313" s="118"/>
-      <c r="H313" s="118"/>
+      <c r="E313" s="82"/>
+      <c r="F313" s="82"/>
+      <c r="G313" s="51"/>
+      <c r="H313" s="51"/>
     </row>
     <row r="314" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="58" t="s">
+      <c r="A314" s="125" t="s">
         <v>249</v>
       </c>
-      <c r="B314" s="57" t="s">
+      <c r="B314" s="106" t="s">
         <v>250</v>
       </c>
       <c r="C314" s="3" t="s">
@@ -8573,132 +8607,132 @@
       <c r="D314" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E314" s="48" t="s">
+      <c r="E314" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F314" s="48" t="s">
+      <c r="F314" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G314" s="116"/>
-      <c r="H314" s="116"/>
+      <c r="G314" s="49"/>
+      <c r="H314" s="49"/>
     </row>
     <row r="315" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A315" s="58"/>
-      <c r="B315" s="57"/>
+      <c r="A315" s="125"/>
+      <c r="B315" s="106"/>
       <c r="C315" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E315" s="48"/>
-      <c r="F315" s="48"/>
-      <c r="G315" s="117"/>
-      <c r="H315" s="117"/>
+      <c r="E315" s="82"/>
+      <c r="F315" s="82"/>
+      <c r="G315" s="50"/>
+      <c r="H315" s="50"/>
     </row>
     <row r="316" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A316" s="58"/>
-      <c r="B316" s="57"/>
+      <c r="A316" s="125"/>
+      <c r="B316" s="106"/>
       <c r="C316" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E316" s="48"/>
-      <c r="F316" s="48"/>
-      <c r="G316" s="117"/>
-      <c r="H316" s="117"/>
+      <c r="E316" s="82"/>
+      <c r="F316" s="82"/>
+      <c r="G316" s="50"/>
+      <c r="H316" s="50"/>
     </row>
     <row r="317" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A317" s="58"/>
-      <c r="B317" s="57"/>
+      <c r="A317" s="125"/>
+      <c r="B317" s="106"/>
       <c r="C317" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E317" s="48"/>
-      <c r="F317" s="48"/>
-      <c r="G317" s="117"/>
-      <c r="H317" s="117"/>
+      <c r="E317" s="82"/>
+      <c r="F317" s="82"/>
+      <c r="G317" s="50"/>
+      <c r="H317" s="50"/>
     </row>
     <row r="318" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A318" s="58"/>
-      <c r="B318" s="57"/>
+      <c r="A318" s="125"/>
+      <c r="B318" s="106"/>
       <c r="C318" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D318" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E318" s="48"/>
-      <c r="F318" s="48"/>
-      <c r="G318" s="117"/>
-      <c r="H318" s="117"/>
+      <c r="E318" s="82"/>
+      <c r="F318" s="82"/>
+      <c r="G318" s="50"/>
+      <c r="H318" s="50"/>
     </row>
     <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="58"/>
-      <c r="B319" s="57"/>
+      <c r="A319" s="125"/>
+      <c r="B319" s="106"/>
       <c r="C319" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D319" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E319" s="48"/>
-      <c r="F319" s="48"/>
-      <c r="G319" s="117"/>
-      <c r="H319" s="117"/>
+      <c r="E319" s="82"/>
+      <c r="F319" s="82"/>
+      <c r="G319" s="50"/>
+      <c r="H319" s="50"/>
     </row>
     <row r="320" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A320" s="58"/>
-      <c r="B320" s="57"/>
+      <c r="A320" s="125"/>
+      <c r="B320" s="106"/>
       <c r="C320" s="5" t="s">
         <v>252</v>
       </c>
       <c r="D320" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E320" s="48"/>
-      <c r="F320" s="48"/>
-      <c r="G320" s="117"/>
-      <c r="H320" s="117"/>
+      <c r="E320" s="82"/>
+      <c r="F320" s="82"/>
+      <c r="G320" s="50"/>
+      <c r="H320" s="50"/>
     </row>
     <row r="321" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A321" s="58"/>
-      <c r="B321" s="57"/>
+      <c r="A321" s="125"/>
+      <c r="B321" s="106"/>
       <c r="C321" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E321" s="48"/>
-      <c r="F321" s="48"/>
-      <c r="G321" s="117"/>
-      <c r="H321" s="117"/>
+      <c r="E321" s="82"/>
+      <c r="F321" s="82"/>
+      <c r="G321" s="50"/>
+      <c r="H321" s="50"/>
     </row>
     <row r="322" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="58"/>
-      <c r="B322" s="57"/>
+      <c r="A322" s="125"/>
+      <c r="B322" s="106"/>
       <c r="C322" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E322" s="48"/>
-      <c r="F322" s="48"/>
-      <c r="G322" s="118"/>
-      <c r="H322" s="118"/>
+      <c r="E322" s="82"/>
+      <c r="F322" s="82"/>
+      <c r="G322" s="51"/>
+      <c r="H322" s="51"/>
     </row>
     <row r="323" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="48" t="s">
+      <c r="A323" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="B323" s="59" t="s">
+      <c r="B323" s="126" t="s">
         <v>254</v>
       </c>
       <c r="C323" s="3" t="s">
@@ -8707,132 +8741,132 @@
       <c r="D323" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E323" s="48" t="s">
+      <c r="E323" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F323" s="48" t="s">
+      <c r="F323" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G323" s="116"/>
-      <c r="H323" s="116"/>
+      <c r="G323" s="49"/>
+      <c r="H323" s="49"/>
     </row>
     <row r="324" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A324" s="48"/>
-      <c r="B324" s="59"/>
+      <c r="A324" s="82"/>
+      <c r="B324" s="126"/>
       <c r="C324" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E324" s="48"/>
-      <c r="F324" s="48"/>
-      <c r="G324" s="117"/>
-      <c r="H324" s="117"/>
+      <c r="E324" s="82"/>
+      <c r="F324" s="82"/>
+      <c r="G324" s="50"/>
+      <c r="H324" s="50"/>
     </row>
     <row r="325" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A325" s="48"/>
-      <c r="B325" s="59"/>
+      <c r="A325" s="82"/>
+      <c r="B325" s="126"/>
       <c r="C325" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D325" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E325" s="48"/>
-      <c r="F325" s="48"/>
-      <c r="G325" s="117"/>
-      <c r="H325" s="117"/>
+      <c r="E325" s="82"/>
+      <c r="F325" s="82"/>
+      <c r="G325" s="50"/>
+      <c r="H325" s="50"/>
     </row>
     <row r="326" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A326" s="48"/>
-      <c r="B326" s="59"/>
+      <c r="A326" s="82"/>
+      <c r="B326" s="126"/>
       <c r="C326" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D326" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E326" s="48"/>
-      <c r="F326" s="48"/>
-      <c r="G326" s="117"/>
-      <c r="H326" s="117"/>
+      <c r="E326" s="82"/>
+      <c r="F326" s="82"/>
+      <c r="G326" s="50"/>
+      <c r="H326" s="50"/>
     </row>
     <row r="327" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A327" s="48"/>
-      <c r="B327" s="59"/>
+      <c r="A327" s="82"/>
+      <c r="B327" s="126"/>
       <c r="C327" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D327" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E327" s="48"/>
-      <c r="F327" s="48"/>
-      <c r="G327" s="117"/>
-      <c r="H327" s="117"/>
+      <c r="E327" s="82"/>
+      <c r="F327" s="82"/>
+      <c r="G327" s="50"/>
+      <c r="H327" s="50"/>
     </row>
     <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A328" s="48"/>
-      <c r="B328" s="59"/>
+      <c r="A328" s="82"/>
+      <c r="B328" s="126"/>
       <c r="C328" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D328" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E328" s="48"/>
-      <c r="F328" s="48"/>
-      <c r="G328" s="117"/>
-      <c r="H328" s="117"/>
+      <c r="E328" s="82"/>
+      <c r="F328" s="82"/>
+      <c r="G328" s="50"/>
+      <c r="H328" s="50"/>
     </row>
     <row r="329" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A329" s="48"/>
-      <c r="B329" s="59"/>
+      <c r="A329" s="82"/>
+      <c r="B329" s="126"/>
       <c r="C329" s="5" t="s">
         <v>256</v>
       </c>
       <c r="D329" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E329" s="48"/>
-      <c r="F329" s="48"/>
-      <c r="G329" s="117"/>
-      <c r="H329" s="117"/>
+      <c r="E329" s="82"/>
+      <c r="F329" s="82"/>
+      <c r="G329" s="50"/>
+      <c r="H329" s="50"/>
     </row>
     <row r="330" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="48"/>
-      <c r="B330" s="59"/>
+      <c r="A330" s="82"/>
+      <c r="B330" s="126"/>
       <c r="C330" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E330" s="48"/>
-      <c r="F330" s="48"/>
-      <c r="G330" s="117"/>
-      <c r="H330" s="117"/>
+      <c r="E330" s="82"/>
+      <c r="F330" s="82"/>
+      <c r="G330" s="50"/>
+      <c r="H330" s="50"/>
     </row>
     <row r="331" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A331" s="48"/>
-      <c r="B331" s="59"/>
+      <c r="A331" s="82"/>
+      <c r="B331" s="126"/>
       <c r="C331" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E331" s="48"/>
-      <c r="F331" s="48"/>
-      <c r="G331" s="118"/>
-      <c r="H331" s="118"/>
+      <c r="E331" s="82"/>
+      <c r="F331" s="82"/>
+      <c r="G331" s="51"/>
+      <c r="H331" s="51"/>
     </row>
     <row r="332" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="48" t="s">
+      <c r="A332" s="129" t="s">
         <v>258</v>
       </c>
-      <c r="B332" s="53" t="s">
+      <c r="B332" s="127" t="s">
         <v>259</v>
       </c>
       <c r="C332" s="3" t="s">
@@ -8841,132 +8875,134 @@
       <c r="D332" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E332" s="48" t="s">
+      <c r="E332" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F332" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="G332" s="116"/>
-      <c r="H332" s="116"/>
+      <c r="F332" s="130" t="s">
+        <v>295</v>
+      </c>
+      <c r="G332" s="49"/>
+      <c r="H332" s="132" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="333" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A333" s="48"/>
-      <c r="B333" s="53"/>
+      <c r="A333" s="129"/>
+      <c r="B333" s="127"/>
       <c r="C333" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E333" s="48"/>
-      <c r="F333" s="48"/>
-      <c r="G333" s="117"/>
-      <c r="H333" s="117"/>
+      <c r="E333" s="82"/>
+      <c r="F333" s="131"/>
+      <c r="G333" s="50"/>
+      <c r="H333" s="133"/>
     </row>
     <row r="334" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A334" s="48"/>
-      <c r="B334" s="53"/>
+      <c r="A334" s="129"/>
+      <c r="B334" s="127"/>
       <c r="C334" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E334" s="48"/>
-      <c r="F334" s="48"/>
-      <c r="G334" s="117"/>
-      <c r="H334" s="117"/>
+      <c r="E334" s="82"/>
+      <c r="F334" s="131"/>
+      <c r="G334" s="50"/>
+      <c r="H334" s="133"/>
     </row>
     <row r="335" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A335" s="48"/>
-      <c r="B335" s="53"/>
+      <c r="A335" s="129"/>
+      <c r="B335" s="127"/>
       <c r="C335" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E335" s="48"/>
-      <c r="F335" s="48"/>
-      <c r="G335" s="117"/>
-      <c r="H335" s="117"/>
+      <c r="E335" s="82"/>
+      <c r="F335" s="131"/>
+      <c r="G335" s="50"/>
+      <c r="H335" s="133"/>
     </row>
     <row r="336" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A336" s="48"/>
-      <c r="B336" s="53"/>
+      <c r="A336" s="129"/>
+      <c r="B336" s="127"/>
       <c r="C336" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D336" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E336" s="48"/>
-      <c r="F336" s="48"/>
-      <c r="G336" s="117"/>
-      <c r="H336" s="117"/>
+      <c r="E336" s="82"/>
+      <c r="F336" s="131"/>
+      <c r="G336" s="50"/>
+      <c r="H336" s="133"/>
     </row>
     <row r="337" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A337" s="48"/>
-      <c r="B337" s="53"/>
+      <c r="A337" s="129"/>
+      <c r="B337" s="127"/>
       <c r="C337" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D337" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E337" s="48"/>
-      <c r="F337" s="48"/>
-      <c r="G337" s="117"/>
-      <c r="H337" s="117"/>
+      <c r="E337" s="82"/>
+      <c r="F337" s="131"/>
+      <c r="G337" s="50"/>
+      <c r="H337" s="133"/>
     </row>
     <row r="338" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A338" s="48"/>
-      <c r="B338" s="53"/>
+      <c r="A338" s="129"/>
+      <c r="B338" s="127"/>
       <c r="C338" s="5" t="s">
         <v>261</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E338" s="48"/>
-      <c r="F338" s="48"/>
-      <c r="G338" s="117"/>
-      <c r="H338" s="117"/>
+      <c r="E338" s="82"/>
+      <c r="F338" s="131"/>
+      <c r="G338" s="50"/>
+      <c r="H338" s="133"/>
     </row>
     <row r="339" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A339" s="48"/>
-      <c r="B339" s="53"/>
+      <c r="A339" s="129"/>
+      <c r="B339" s="127"/>
       <c r="C339" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E339" s="48"/>
-      <c r="F339" s="48"/>
-      <c r="G339" s="117"/>
-      <c r="H339" s="117"/>
+      <c r="E339" s="82"/>
+      <c r="F339" s="131"/>
+      <c r="G339" s="50"/>
+      <c r="H339" s="133"/>
     </row>
     <row r="340" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A340" s="48"/>
-      <c r="B340" s="53"/>
+      <c r="A340" s="129"/>
+      <c r="B340" s="127"/>
       <c r="C340" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D340" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E340" s="48"/>
-      <c r="F340" s="48"/>
-      <c r="G340" s="118"/>
-      <c r="H340" s="118"/>
+      <c r="E340" s="82"/>
+      <c r="F340" s="131"/>
+      <c r="G340" s="51"/>
+      <c r="H340" s="134"/>
     </row>
     <row r="341" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="48" t="s">
+      <c r="A341" s="82" t="s">
         <v>264</v>
       </c>
-      <c r="B341" s="54" t="s">
+      <c r="B341" s="108" t="s">
         <v>263</v>
       </c>
       <c r="C341" s="3" t="s">
@@ -8975,132 +9011,132 @@
       <c r="D341" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E341" s="48" t="s">
+      <c r="E341" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F341" s="48" t="s">
+      <c r="F341" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G341" s="116"/>
-      <c r="H341" s="116"/>
+      <c r="G341" s="49"/>
+      <c r="H341" s="49"/>
     </row>
     <row r="342" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A342" s="48"/>
-      <c r="B342" s="54"/>
+      <c r="A342" s="82"/>
+      <c r="B342" s="108"/>
       <c r="C342" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E342" s="48"/>
-      <c r="F342" s="48"/>
-      <c r="G342" s="117"/>
-      <c r="H342" s="117"/>
+      <c r="E342" s="82"/>
+      <c r="F342" s="82"/>
+      <c r="G342" s="50"/>
+      <c r="H342" s="50"/>
     </row>
     <row r="343" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A343" s="48"/>
-      <c r="B343" s="54"/>
+      <c r="A343" s="82"/>
+      <c r="B343" s="108"/>
       <c r="C343" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E343" s="48"/>
-      <c r="F343" s="48"/>
-      <c r="G343" s="117"/>
-      <c r="H343" s="117"/>
+      <c r="E343" s="82"/>
+      <c r="F343" s="82"/>
+      <c r="G343" s="50"/>
+      <c r="H343" s="50"/>
     </row>
     <row r="344" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A344" s="48"/>
-      <c r="B344" s="54"/>
+      <c r="A344" s="82"/>
+      <c r="B344" s="108"/>
       <c r="C344" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E344" s="48"/>
-      <c r="F344" s="48"/>
-      <c r="G344" s="117"/>
-      <c r="H344" s="117"/>
+      <c r="E344" s="82"/>
+      <c r="F344" s="82"/>
+      <c r="G344" s="50"/>
+      <c r="H344" s="50"/>
     </row>
     <row r="345" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A345" s="48"/>
-      <c r="B345" s="54"/>
+      <c r="A345" s="82"/>
+      <c r="B345" s="108"/>
       <c r="C345" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D345" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E345" s="48"/>
-      <c r="F345" s="48"/>
-      <c r="G345" s="117"/>
-      <c r="H345" s="117"/>
+      <c r="E345" s="82"/>
+      <c r="F345" s="82"/>
+      <c r="G345" s="50"/>
+      <c r="H345" s="50"/>
     </row>
     <row r="346" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" s="48"/>
-      <c r="B346" s="54"/>
+      <c r="A346" s="82"/>
+      <c r="B346" s="108"/>
       <c r="C346" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E346" s="48"/>
-      <c r="F346" s="48"/>
-      <c r="G346" s="117"/>
-      <c r="H346" s="117"/>
+      <c r="E346" s="82"/>
+      <c r="F346" s="82"/>
+      <c r="G346" s="50"/>
+      <c r="H346" s="50"/>
     </row>
     <row r="347" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A347" s="48"/>
-      <c r="B347" s="54"/>
+      <c r="A347" s="82"/>
+      <c r="B347" s="108"/>
       <c r="C347" s="5" t="s">
         <v>265</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E347" s="48"/>
-      <c r="F347" s="48"/>
-      <c r="G347" s="117"/>
-      <c r="H347" s="117"/>
+      <c r="E347" s="82"/>
+      <c r="F347" s="82"/>
+      <c r="G347" s="50"/>
+      <c r="H347" s="50"/>
     </row>
     <row r="348" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A348" s="48"/>
-      <c r="B348" s="54"/>
+      <c r="A348" s="82"/>
+      <c r="B348" s="108"/>
       <c r="C348" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D348" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E348" s="48"/>
-      <c r="F348" s="48"/>
-      <c r="G348" s="117"/>
-      <c r="H348" s="117"/>
+      <c r="E348" s="82"/>
+      <c r="F348" s="82"/>
+      <c r="G348" s="50"/>
+      <c r="H348" s="50"/>
     </row>
     <row r="349" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A349" s="48"/>
-      <c r="B349" s="54"/>
+      <c r="A349" s="82"/>
+      <c r="B349" s="108"/>
       <c r="C349" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E349" s="48"/>
-      <c r="F349" s="48"/>
-      <c r="G349" s="118"/>
-      <c r="H349" s="118"/>
+      <c r="E349" s="82"/>
+      <c r="F349" s="82"/>
+      <c r="G349" s="51"/>
+      <c r="H349" s="51"/>
     </row>
     <row r="350" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="48" t="s">
+      <c r="A350" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="B350" s="55" t="s">
+      <c r="B350" s="123" t="s">
         <v>266</v>
       </c>
       <c r="C350" s="3" t="s">
@@ -9109,132 +9145,132 @@
       <c r="D350" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E350" s="48" t="s">
+      <c r="E350" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F350" s="48" t="s">
+      <c r="F350" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G350" s="116"/>
-      <c r="H350" s="116"/>
+      <c r="G350" s="49"/>
+      <c r="H350" s="49"/>
     </row>
     <row r="351" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A351" s="48"/>
-      <c r="B351" s="55"/>
+      <c r="A351" s="82"/>
+      <c r="B351" s="123"/>
       <c r="C351" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E351" s="48"/>
-      <c r="F351" s="48"/>
-      <c r="G351" s="117"/>
-      <c r="H351" s="117"/>
+      <c r="E351" s="82"/>
+      <c r="F351" s="82"/>
+      <c r="G351" s="50"/>
+      <c r="H351" s="50"/>
     </row>
     <row r="352" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A352" s="48"/>
-      <c r="B352" s="55"/>
+      <c r="A352" s="82"/>
+      <c r="B352" s="123"/>
       <c r="C352" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E352" s="48"/>
-      <c r="F352" s="48"/>
-      <c r="G352" s="117"/>
-      <c r="H352" s="117"/>
+      <c r="E352" s="82"/>
+      <c r="F352" s="82"/>
+      <c r="G352" s="50"/>
+      <c r="H352" s="50"/>
     </row>
     <row r="353" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A353" s="48"/>
-      <c r="B353" s="55"/>
+      <c r="A353" s="82"/>
+      <c r="B353" s="123"/>
       <c r="C353" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E353" s="48"/>
-      <c r="F353" s="48"/>
-      <c r="G353" s="117"/>
-      <c r="H353" s="117"/>
+      <c r="E353" s="82"/>
+      <c r="F353" s="82"/>
+      <c r="G353" s="50"/>
+      <c r="H353" s="50"/>
     </row>
     <row r="354" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A354" s="48"/>
-      <c r="B354" s="55"/>
+      <c r="A354" s="82"/>
+      <c r="B354" s="123"/>
       <c r="C354" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D354" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E354" s="48"/>
-      <c r="F354" s="48"/>
-      <c r="G354" s="117"/>
-      <c r="H354" s="117"/>
+      <c r="E354" s="82"/>
+      <c r="F354" s="82"/>
+      <c r="G354" s="50"/>
+      <c r="H354" s="50"/>
     </row>
     <row r="355" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A355" s="48"/>
-      <c r="B355" s="55"/>
+      <c r="A355" s="82"/>
+      <c r="B355" s="123"/>
       <c r="C355" s="4" t="s">
         <v>233</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E355" s="48"/>
-      <c r="F355" s="48"/>
-      <c r="G355" s="117"/>
-      <c r="H355" s="117"/>
+      <c r="E355" s="82"/>
+      <c r="F355" s="82"/>
+      <c r="G355" s="50"/>
+      <c r="H355" s="50"/>
     </row>
     <row r="356" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A356" s="48"/>
-      <c r="B356" s="55"/>
+      <c r="A356" s="82"/>
+      <c r="B356" s="123"/>
       <c r="C356" s="5" t="s">
         <v>268</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E356" s="48"/>
-      <c r="F356" s="48"/>
-      <c r="G356" s="117"/>
-      <c r="H356" s="117"/>
+      <c r="E356" s="82"/>
+      <c r="F356" s="82"/>
+      <c r="G356" s="50"/>
+      <c r="H356" s="50"/>
     </row>
     <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A357" s="48"/>
-      <c r="B357" s="55"/>
+      <c r="A357" s="82"/>
+      <c r="B357" s="123"/>
       <c r="C357" s="3" t="s">
         <v>235</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E357" s="48"/>
-      <c r="F357" s="48"/>
-      <c r="G357" s="117"/>
-      <c r="H357" s="117"/>
+      <c r="E357" s="82"/>
+      <c r="F357" s="82"/>
+      <c r="G357" s="50"/>
+      <c r="H357" s="50"/>
     </row>
     <row r="358" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A358" s="48"/>
-      <c r="B358" s="55"/>
+      <c r="A358" s="82"/>
+      <c r="B358" s="123"/>
       <c r="C358" s="3" t="s">
         <v>237</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E358" s="48"/>
-      <c r="F358" s="48"/>
-      <c r="G358" s="118"/>
-      <c r="H358" s="118"/>
+      <c r="E358" s="82"/>
+      <c r="F358" s="82"/>
+      <c r="G358" s="51"/>
+      <c r="H358" s="51"/>
     </row>
     <row r="359" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="48" t="s">
+      <c r="A359" s="82" t="s">
         <v>271</v>
       </c>
-      <c r="B359" s="52" t="s">
+      <c r="B359" s="91" t="s">
         <v>272</v>
       </c>
       <c r="C359" s="3" t="s">
@@ -9243,293 +9279,177 @@
       <c r="D359" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E359" s="48" t="s">
+      <c r="E359" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="F359" s="48" t="s">
+      <c r="F359" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="G359" s="116"/>
-      <c r="H359" s="116"/>
+      <c r="G359" s="49"/>
+      <c r="H359" s="49"/>
     </row>
     <row r="360" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A360" s="48"/>
-      <c r="B360" s="52"/>
+      <c r="A360" s="82"/>
+      <c r="B360" s="91"/>
       <c r="C360" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E360" s="48"/>
-      <c r="F360" s="48"/>
-      <c r="G360" s="117"/>
-      <c r="H360" s="117"/>
+      <c r="E360" s="82"/>
+      <c r="F360" s="82"/>
+      <c r="G360" s="50"/>
+      <c r="H360" s="50"/>
     </row>
     <row r="361" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A361" s="48"/>
-      <c r="B361" s="52"/>
+      <c r="A361" s="82"/>
+      <c r="B361" s="91"/>
       <c r="C361" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E361" s="48"/>
-      <c r="F361" s="48"/>
-      <c r="G361" s="117"/>
-      <c r="H361" s="117"/>
+      <c r="E361" s="82"/>
+      <c r="F361" s="82"/>
+      <c r="G361" s="50"/>
+      <c r="H361" s="50"/>
     </row>
     <row r="362" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A362" s="48"/>
-      <c r="B362" s="52"/>
+      <c r="A362" s="82"/>
+      <c r="B362" s="91"/>
       <c r="C362" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E362" s="48"/>
-      <c r="F362" s="48"/>
-      <c r="G362" s="117"/>
-      <c r="H362" s="117"/>
+      <c r="E362" s="82"/>
+      <c r="F362" s="82"/>
+      <c r="G362" s="50"/>
+      <c r="H362" s="50"/>
     </row>
     <row r="363" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A363" s="48"/>
-      <c r="B363" s="52"/>
+      <c r="A363" s="82"/>
+      <c r="B363" s="91"/>
       <c r="C363" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D363" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="E363" s="48"/>
-      <c r="F363" s="48"/>
-      <c r="G363" s="117"/>
-      <c r="H363" s="117"/>
+      <c r="E363" s="82"/>
+      <c r="F363" s="82"/>
+      <c r="G363" s="50"/>
+      <c r="H363" s="50"/>
     </row>
     <row r="364" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A364" s="48"/>
-      <c r="B364" s="52"/>
+      <c r="A364" s="82"/>
+      <c r="B364" s="91"/>
       <c r="C364" s="4" t="s">
         <v>273</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E364" s="48"/>
-      <c r="F364" s="48"/>
-      <c r="G364" s="117"/>
-      <c r="H364" s="117"/>
+      <c r="E364" s="82"/>
+      <c r="F364" s="82"/>
+      <c r="G364" s="50"/>
+      <c r="H364" s="50"/>
     </row>
     <row r="365" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A365" s="48"/>
-      <c r="B365" s="52"/>
+      <c r="A365" s="82"/>
+      <c r="B365" s="91"/>
       <c r="C365" s="5" t="s">
         <v>274</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E365" s="48"/>
-      <c r="F365" s="48"/>
-      <c r="G365" s="117"/>
-      <c r="H365" s="117"/>
+      <c r="E365" s="82"/>
+      <c r="F365" s="82"/>
+      <c r="G365" s="50"/>
+      <c r="H365" s="50"/>
     </row>
     <row r="366" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A366" s="48"/>
-      <c r="B366" s="52"/>
+      <c r="A366" s="82"/>
+      <c r="B366" s="91"/>
       <c r="C366" s="3" t="s">
         <v>275</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E366" s="48"/>
-      <c r="F366" s="48"/>
-      <c r="G366" s="118"/>
-      <c r="H366" s="118"/>
+      <c r="E366" s="82"/>
+      <c r="F366" s="82"/>
+      <c r="G366" s="51"/>
+      <c r="H366" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="H323:H331"/>
-    <mergeCell ref="G332:G340"/>
-    <mergeCell ref="H332:H340"/>
-    <mergeCell ref="G341:G349"/>
-    <mergeCell ref="H341:H349"/>
-    <mergeCell ref="G350:G358"/>
-    <mergeCell ref="H350:H358"/>
-    <mergeCell ref="G359:G366"/>
-    <mergeCell ref="H359:H366"/>
-    <mergeCell ref="H278:H286"/>
-    <mergeCell ref="G287:G295"/>
-    <mergeCell ref="H287:H295"/>
-    <mergeCell ref="G296:G304"/>
-    <mergeCell ref="H296:H304"/>
-    <mergeCell ref="G305:G313"/>
-    <mergeCell ref="H305:H313"/>
-    <mergeCell ref="G314:G322"/>
-    <mergeCell ref="H314:H322"/>
-    <mergeCell ref="H233:H241"/>
-    <mergeCell ref="G242:G250"/>
-    <mergeCell ref="H242:H250"/>
-    <mergeCell ref="G251:G259"/>
-    <mergeCell ref="H251:H259"/>
-    <mergeCell ref="G260:G268"/>
-    <mergeCell ref="H260:H268"/>
-    <mergeCell ref="G269:G277"/>
-    <mergeCell ref="H269:H277"/>
-    <mergeCell ref="H188:H196"/>
-    <mergeCell ref="G197:G205"/>
-    <mergeCell ref="H197:H205"/>
-    <mergeCell ref="G206:G214"/>
-    <mergeCell ref="H206:H214"/>
-    <mergeCell ref="G215:G223"/>
-    <mergeCell ref="H215:H223"/>
-    <mergeCell ref="G224:G232"/>
-    <mergeCell ref="H224:H232"/>
-    <mergeCell ref="H148:H155"/>
-    <mergeCell ref="G156:G163"/>
-    <mergeCell ref="H156:H163"/>
-    <mergeCell ref="G164:G171"/>
-    <mergeCell ref="H164:H171"/>
-    <mergeCell ref="G172:G179"/>
-    <mergeCell ref="H172:H179"/>
-    <mergeCell ref="G180:G187"/>
-    <mergeCell ref="H180:H187"/>
-    <mergeCell ref="H108:H115"/>
-    <mergeCell ref="G116:G123"/>
-    <mergeCell ref="H116:H123"/>
-    <mergeCell ref="G124:G131"/>
-    <mergeCell ref="H124:H131"/>
-    <mergeCell ref="G132:G139"/>
-    <mergeCell ref="H132:H139"/>
-    <mergeCell ref="G140:G147"/>
-    <mergeCell ref="H140:H147"/>
-    <mergeCell ref="H68:H75"/>
-    <mergeCell ref="H76:H83"/>
-    <mergeCell ref="G76:G83"/>
-    <mergeCell ref="G84:G91"/>
-    <mergeCell ref="H84:H91"/>
-    <mergeCell ref="G92:G99"/>
-    <mergeCell ref="H92:H99"/>
-    <mergeCell ref="G100:G107"/>
-    <mergeCell ref="H100:H107"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H7:H14"/>
-    <mergeCell ref="H15:H22"/>
-    <mergeCell ref="H23:H30"/>
-    <mergeCell ref="H31:H38"/>
-    <mergeCell ref="H39:H43"/>
-    <mergeCell ref="H44:H51"/>
-    <mergeCell ref="H52:H59"/>
-    <mergeCell ref="G60:G67"/>
-    <mergeCell ref="H60:H67"/>
-    <mergeCell ref="E92:E99"/>
-    <mergeCell ref="F92:F99"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="G23:G30"/>
-    <mergeCell ref="G31:G38"/>
-    <mergeCell ref="G39:G43"/>
-    <mergeCell ref="G44:G51"/>
-    <mergeCell ref="G52:G59"/>
-    <mergeCell ref="G68:G75"/>
-    <mergeCell ref="G108:G115"/>
-    <mergeCell ref="G148:G155"/>
-    <mergeCell ref="G188:G196"/>
-    <mergeCell ref="G233:G241"/>
-    <mergeCell ref="G278:G286"/>
-    <mergeCell ref="G323:G331"/>
-    <mergeCell ref="B116:B123"/>
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="B124:B131"/>
-    <mergeCell ref="A124:A131"/>
-    <mergeCell ref="B132:B139"/>
-    <mergeCell ref="A132:A139"/>
-    <mergeCell ref="B140:B147"/>
-    <mergeCell ref="A140:A147"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="A68:A75"/>
-    <mergeCell ref="B76:B83"/>
-    <mergeCell ref="A76:A83"/>
-    <mergeCell ref="B84:B91"/>
-    <mergeCell ref="A84:A91"/>
-    <mergeCell ref="B100:B107"/>
-    <mergeCell ref="A100:A107"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="A108:A115"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B172:B179"/>
-    <mergeCell ref="A172:A179"/>
-    <mergeCell ref="B180:B187"/>
-    <mergeCell ref="A180:A187"/>
-    <mergeCell ref="B188:B196"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="B148:B155"/>
-    <mergeCell ref="A148:A155"/>
-    <mergeCell ref="A156:A163"/>
-    <mergeCell ref="B156:B163"/>
-    <mergeCell ref="B164:B171"/>
-    <mergeCell ref="A164:A171"/>
-    <mergeCell ref="B224:B232"/>
-    <mergeCell ref="A224:A232"/>
-    <mergeCell ref="B233:B241"/>
-    <mergeCell ref="A233:A241"/>
-    <mergeCell ref="B242:B250"/>
-    <mergeCell ref="A242:A250"/>
-    <mergeCell ref="B197:B205"/>
-    <mergeCell ref="A197:A205"/>
-    <mergeCell ref="A206:A214"/>
-    <mergeCell ref="B206:B214"/>
-    <mergeCell ref="B215:B223"/>
-    <mergeCell ref="A215:A223"/>
-    <mergeCell ref="B278:B286"/>
-    <mergeCell ref="A278:A286"/>
-    <mergeCell ref="B287:B295"/>
-    <mergeCell ref="A287:A295"/>
-    <mergeCell ref="B296:B304"/>
-    <mergeCell ref="A296:A304"/>
-    <mergeCell ref="A251:A259"/>
-    <mergeCell ref="B251:B259"/>
-    <mergeCell ref="B260:B268"/>
-    <mergeCell ref="A260:A268"/>
-    <mergeCell ref="B269:B277"/>
-    <mergeCell ref="A269:A277"/>
-    <mergeCell ref="B341:B349"/>
-    <mergeCell ref="B350:B358"/>
-    <mergeCell ref="A350:A358"/>
-    <mergeCell ref="B305:B313"/>
-    <mergeCell ref="A305:A313"/>
-    <mergeCell ref="B314:B322"/>
-    <mergeCell ref="A314:A322"/>
-    <mergeCell ref="B323:B331"/>
-    <mergeCell ref="A323:A331"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="E23:E30"/>
-    <mergeCell ref="E31:E38"/>
-    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="F323:F331"/>
+    <mergeCell ref="F332:F340"/>
+    <mergeCell ref="F341:F349"/>
+    <mergeCell ref="F350:F358"/>
+    <mergeCell ref="F359:F366"/>
+    <mergeCell ref="F278:F286"/>
+    <mergeCell ref="F287:F295"/>
+    <mergeCell ref="F296:F304"/>
+    <mergeCell ref="F305:F313"/>
+    <mergeCell ref="F314:F322"/>
+    <mergeCell ref="F233:F241"/>
+    <mergeCell ref="F242:F250"/>
+    <mergeCell ref="F251:F259"/>
+    <mergeCell ref="F260:F268"/>
+    <mergeCell ref="F269:F277"/>
+    <mergeCell ref="F180:F187"/>
+    <mergeCell ref="F188:F196"/>
+    <mergeCell ref="F197:F205"/>
+    <mergeCell ref="F206:F214"/>
+    <mergeCell ref="F215:F223"/>
+    <mergeCell ref="F224:F232"/>
+    <mergeCell ref="F140:F147"/>
+    <mergeCell ref="F148:F155"/>
+    <mergeCell ref="F156:F163"/>
+    <mergeCell ref="F164:F171"/>
+    <mergeCell ref="F172:F179"/>
+    <mergeCell ref="E359:E366"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="F23:F30"/>
+    <mergeCell ref="F31:F38"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="F44:F51"/>
+    <mergeCell ref="F52:F59"/>
+    <mergeCell ref="F60:F67"/>
+    <mergeCell ref="F68:F75"/>
+    <mergeCell ref="F76:F83"/>
+    <mergeCell ref="F84:F91"/>
+    <mergeCell ref="F100:F107"/>
+    <mergeCell ref="F108:F115"/>
+    <mergeCell ref="F116:F123"/>
+    <mergeCell ref="F124:F131"/>
+    <mergeCell ref="F132:F139"/>
+    <mergeCell ref="E314:E322"/>
+    <mergeCell ref="E323:E331"/>
+    <mergeCell ref="E332:E340"/>
+    <mergeCell ref="E140:E147"/>
+    <mergeCell ref="E148:E155"/>
+    <mergeCell ref="E156:E163"/>
+    <mergeCell ref="E164:E171"/>
+    <mergeCell ref="E172:E179"/>
+    <mergeCell ref="E341:E349"/>
+    <mergeCell ref="E350:E358"/>
+    <mergeCell ref="E269:E277"/>
+    <mergeCell ref="E278:E286"/>
+    <mergeCell ref="E287:E295"/>
+    <mergeCell ref="E296:E304"/>
+    <mergeCell ref="E305:E313"/>
+    <mergeCell ref="E224:E232"/>
+    <mergeCell ref="E233:E241"/>
+    <mergeCell ref="E242:E250"/>
+    <mergeCell ref="E251:E259"/>
+    <mergeCell ref="E260:E268"/>
     <mergeCell ref="B359:B366"/>
     <mergeCell ref="A359:A366"/>
     <mergeCell ref="E3:E6"/>
@@ -9554,68 +9474,184 @@
     <mergeCell ref="E197:E205"/>
     <mergeCell ref="E206:E214"/>
     <mergeCell ref="E215:E223"/>
-    <mergeCell ref="E140:E147"/>
-    <mergeCell ref="E148:E155"/>
-    <mergeCell ref="E156:E163"/>
-    <mergeCell ref="E164:E171"/>
-    <mergeCell ref="E172:E179"/>
-    <mergeCell ref="E341:E349"/>
-    <mergeCell ref="E350:E358"/>
-    <mergeCell ref="E269:E277"/>
-    <mergeCell ref="E278:E286"/>
-    <mergeCell ref="E287:E295"/>
-    <mergeCell ref="E296:E304"/>
-    <mergeCell ref="E305:E313"/>
-    <mergeCell ref="E224:E232"/>
-    <mergeCell ref="E233:E241"/>
-    <mergeCell ref="E242:E250"/>
-    <mergeCell ref="E251:E259"/>
-    <mergeCell ref="E260:E268"/>
-    <mergeCell ref="F140:F147"/>
-    <mergeCell ref="F148:F155"/>
-    <mergeCell ref="F156:F163"/>
-    <mergeCell ref="F164:F171"/>
-    <mergeCell ref="F172:F179"/>
-    <mergeCell ref="E359:E366"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="F23:F30"/>
-    <mergeCell ref="F31:F38"/>
-    <mergeCell ref="F39:F43"/>
-    <mergeCell ref="F44:F51"/>
-    <mergeCell ref="F52:F59"/>
-    <mergeCell ref="F60:F67"/>
-    <mergeCell ref="F68:F75"/>
-    <mergeCell ref="F76:F83"/>
-    <mergeCell ref="F84:F91"/>
-    <mergeCell ref="F100:F107"/>
-    <mergeCell ref="F108:F115"/>
-    <mergeCell ref="F116:F123"/>
-    <mergeCell ref="F124:F131"/>
-    <mergeCell ref="F132:F139"/>
-    <mergeCell ref="E314:E322"/>
-    <mergeCell ref="E323:E331"/>
-    <mergeCell ref="E332:E340"/>
-    <mergeCell ref="F233:F241"/>
-    <mergeCell ref="F242:F250"/>
-    <mergeCell ref="F251:F259"/>
-    <mergeCell ref="F260:F268"/>
-    <mergeCell ref="F269:F277"/>
-    <mergeCell ref="F180:F187"/>
-    <mergeCell ref="F188:F196"/>
-    <mergeCell ref="F197:F205"/>
-    <mergeCell ref="F206:F214"/>
-    <mergeCell ref="F215:F223"/>
-    <mergeCell ref="F224:F232"/>
-    <mergeCell ref="F323:F331"/>
-    <mergeCell ref="F332:F340"/>
-    <mergeCell ref="F341:F349"/>
-    <mergeCell ref="F350:F358"/>
-    <mergeCell ref="F359:F366"/>
-    <mergeCell ref="F278:F286"/>
-    <mergeCell ref="F287:F295"/>
-    <mergeCell ref="F296:F304"/>
-    <mergeCell ref="F305:F313"/>
-    <mergeCell ref="F314:F322"/>
+    <mergeCell ref="B341:B349"/>
+    <mergeCell ref="B350:B358"/>
+    <mergeCell ref="A350:A358"/>
+    <mergeCell ref="B305:B313"/>
+    <mergeCell ref="A305:A313"/>
+    <mergeCell ref="B314:B322"/>
+    <mergeCell ref="A314:A322"/>
+    <mergeCell ref="B323:B331"/>
+    <mergeCell ref="A323:A331"/>
+    <mergeCell ref="B278:B286"/>
+    <mergeCell ref="A278:A286"/>
+    <mergeCell ref="B287:B295"/>
+    <mergeCell ref="A287:A295"/>
+    <mergeCell ref="B296:B304"/>
+    <mergeCell ref="A296:A304"/>
+    <mergeCell ref="A251:A259"/>
+    <mergeCell ref="B251:B259"/>
+    <mergeCell ref="B260:B268"/>
+    <mergeCell ref="A260:A268"/>
+    <mergeCell ref="B269:B277"/>
+    <mergeCell ref="A269:A277"/>
+    <mergeCell ref="B224:B232"/>
+    <mergeCell ref="A224:A232"/>
+    <mergeCell ref="B233:B241"/>
+    <mergeCell ref="A233:A241"/>
+    <mergeCell ref="B242:B250"/>
+    <mergeCell ref="A242:A250"/>
+    <mergeCell ref="B197:B205"/>
+    <mergeCell ref="A197:A205"/>
+    <mergeCell ref="A206:A214"/>
+    <mergeCell ref="B206:B214"/>
+    <mergeCell ref="B215:B223"/>
+    <mergeCell ref="A215:A223"/>
+    <mergeCell ref="B172:B179"/>
+    <mergeCell ref="A172:A179"/>
+    <mergeCell ref="B180:B187"/>
+    <mergeCell ref="A180:A187"/>
+    <mergeCell ref="B188:B196"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="B148:B155"/>
+    <mergeCell ref="A148:A155"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="B164:B171"/>
+    <mergeCell ref="A164:A171"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="A68:A75"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="A76:A83"/>
+    <mergeCell ref="B84:B91"/>
+    <mergeCell ref="A84:A91"/>
+    <mergeCell ref="B100:B107"/>
+    <mergeCell ref="A100:A107"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="A108:A115"/>
+    <mergeCell ref="B116:B123"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="B124:B131"/>
+    <mergeCell ref="A124:A131"/>
+    <mergeCell ref="B132:B139"/>
+    <mergeCell ref="A132:A139"/>
+    <mergeCell ref="B140:B147"/>
+    <mergeCell ref="A140:A147"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="E92:E99"/>
+    <mergeCell ref="F92:F99"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="G15:G22"/>
+    <mergeCell ref="G23:G30"/>
+    <mergeCell ref="G31:G38"/>
+    <mergeCell ref="G39:G43"/>
+    <mergeCell ref="G44:G51"/>
+    <mergeCell ref="G52:G59"/>
+    <mergeCell ref="G68:G75"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="E23:E30"/>
+    <mergeCell ref="E31:E38"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H7:H14"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="H23:H30"/>
+    <mergeCell ref="H31:H38"/>
+    <mergeCell ref="H39:H43"/>
+    <mergeCell ref="H44:H51"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="G60:G67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="H76:H83"/>
+    <mergeCell ref="G76:G83"/>
+    <mergeCell ref="G84:G91"/>
+    <mergeCell ref="H84:H91"/>
+    <mergeCell ref="G92:G99"/>
+    <mergeCell ref="H92:H99"/>
+    <mergeCell ref="G100:G107"/>
+    <mergeCell ref="H100:H107"/>
+    <mergeCell ref="H108:H115"/>
+    <mergeCell ref="G116:G123"/>
+    <mergeCell ref="H116:H123"/>
+    <mergeCell ref="G124:G131"/>
+    <mergeCell ref="H124:H131"/>
+    <mergeCell ref="G132:G139"/>
+    <mergeCell ref="H132:H139"/>
+    <mergeCell ref="G140:G147"/>
+    <mergeCell ref="H140:H147"/>
+    <mergeCell ref="G108:G115"/>
+    <mergeCell ref="H148:H155"/>
+    <mergeCell ref="G156:G163"/>
+    <mergeCell ref="H156:H163"/>
+    <mergeCell ref="G164:G171"/>
+    <mergeCell ref="H164:H171"/>
+    <mergeCell ref="G172:G179"/>
+    <mergeCell ref="H172:H179"/>
+    <mergeCell ref="G180:G187"/>
+    <mergeCell ref="H180:H187"/>
+    <mergeCell ref="G148:G155"/>
+    <mergeCell ref="H188:H196"/>
+    <mergeCell ref="G197:G205"/>
+    <mergeCell ref="H197:H205"/>
+    <mergeCell ref="G206:G214"/>
+    <mergeCell ref="H206:H214"/>
+    <mergeCell ref="G215:G223"/>
+    <mergeCell ref="H215:H223"/>
+    <mergeCell ref="G224:G232"/>
+    <mergeCell ref="H224:H232"/>
+    <mergeCell ref="G188:G196"/>
+    <mergeCell ref="H233:H241"/>
+    <mergeCell ref="G242:G250"/>
+    <mergeCell ref="H242:H250"/>
+    <mergeCell ref="G251:G259"/>
+    <mergeCell ref="H251:H259"/>
+    <mergeCell ref="G260:G268"/>
+    <mergeCell ref="H260:H268"/>
+    <mergeCell ref="G269:G277"/>
+    <mergeCell ref="H269:H277"/>
+    <mergeCell ref="G233:G241"/>
+    <mergeCell ref="H278:H286"/>
+    <mergeCell ref="G287:G295"/>
+    <mergeCell ref="H287:H295"/>
+    <mergeCell ref="G296:G304"/>
+    <mergeCell ref="H296:H304"/>
+    <mergeCell ref="G305:G313"/>
+    <mergeCell ref="H305:H313"/>
+    <mergeCell ref="G314:G322"/>
+    <mergeCell ref="H314:H322"/>
+    <mergeCell ref="G278:G286"/>
+    <mergeCell ref="H323:H331"/>
+    <mergeCell ref="G332:G340"/>
+    <mergeCell ref="H332:H340"/>
+    <mergeCell ref="G341:G349"/>
+    <mergeCell ref="H341:H349"/>
+    <mergeCell ref="G350:G358"/>
+    <mergeCell ref="H350:H358"/>
+    <mergeCell ref="G359:G366"/>
+    <mergeCell ref="H359:H366"/>
+    <mergeCell ref="G323:G331"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
